--- a/mlb_distances.xlsx
+++ b/mlb_distances.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookViews>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>Team 1</t>
   </si>
@@ -22,7 +22,7 @@
     <t>Distance (miles)</t>
   </si>
   <si>
-    <t>Arizona Diamondbacks</t>
+    <t>Arizona D-backs</t>
   </si>
   <si>
     <t>Atlanta Braves</t>
@@ -115,18 +115,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="3">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -134,32 +141,75 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffaaaaaa"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -173,10 +223,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4285F4"/>
@@ -197,25 +247,25 @@
         <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Sheets">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -224,76 +274,66 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="129999"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="104999"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -304,4868 +344,6617 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Arial"/>
+            <a:ea typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+            <a:sym typeface="Arial"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Arial"/>
+            <a:ea typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+            <a:sym typeface="Arial"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:E436"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="33.63"/>
+    <col min="1" max="2" width="33.6719" style="1" customWidth="1"/>
+    <col min="3" max="5" width="12.6719" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="13.65" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" ht="13.65" customHeight="1">
+      <c r="A2" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>1585.94</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" ht="13.65" customHeight="1">
+      <c r="A3" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>2003.87</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" ht="13.65" customHeight="1">
+      <c r="A4" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>2297.68</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" ht="13.65" customHeight="1">
+      <c r="A5" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>1452.86</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" ht="13.65" customHeight="1">
+      <c r="A6" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>1453.98</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" ht="13.65" customHeight="1">
+      <c r="A7" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>1580.61</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" ht="13.65" customHeight="1">
+      <c r="A8" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>1749.22</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" ht="13.65" customHeight="1">
+      <c r="A9" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="C9" s="1">
-        <v>586.06</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="C9" s="4">
+        <v>586.0599999999999</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" ht="13.65" customHeight="1">
+      <c r="A10" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>1690.23</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" ht="13.65" customHeight="1">
+      <c r="A11" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>1016.37</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" ht="13.65" customHeight="1">
+      <c r="A12" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>1053.29</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" ht="13.65" customHeight="1">
+      <c r="A13" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>336.18</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" ht="13.65" customHeight="1">
+      <c r="A14" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>357.95</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" ht="13.65" customHeight="1">
+      <c r="A15" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="4">
         <v>1979.48</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" ht="13.65" customHeight="1">
+      <c r="A16" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="4">
         <v>1460.74</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" ht="13.65" customHeight="1">
+      <c r="A17" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="4">
         <v>1279.05</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" ht="13.65" customHeight="1">
+      <c r="A18" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="4">
         <v>2148.37</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" ht="13.65" customHeight="1">
+      <c r="A19" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <v>2152.48</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" ht="13.65" customHeight="1">
+      <c r="A20" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="C20" s="1">
-        <v>642.69</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="C20" s="4">
+        <v>642.6900000000001</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" ht="13.65" customHeight="1">
+      <c r="A21" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="4">
         <v>2081.89</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" ht="13.65" customHeight="1">
+      <c r="A22" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="4">
         <v>1827.9</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" ht="13.65" customHeight="1">
+      <c r="A23" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="4">
         <v>299.65</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" ht="13.65" customHeight="1">
+      <c r="A24" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="4">
         <v>652.88</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" ht="13.65" customHeight="1">
+      <c r="A25" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="4">
         <v>1113.49</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" ht="13.65" customHeight="1">
+      <c r="A26" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="4">
         <v>1272.37</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" ht="13.65" customHeight="1">
+      <c r="A27" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="4">
         <v>1789.31</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" ht="13.65" customHeight="1">
+      <c r="A28" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="4">
         <v>869.73</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" ht="13.65" customHeight="1">
+      <c r="A29" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="4">
         <v>1889.58</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" ht="13.65" customHeight="1">
+      <c r="A30" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="4">
         <v>1983.05</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" ht="13.65" customHeight="1">
+      <c r="A31" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="4">
         <v>572.86</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" ht="13.65" customHeight="1">
+      <c r="A32" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="4">
         <v>931.26</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" ht="13.65" customHeight="1">
+      <c r="A33" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="4">
         <v>574.21</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" ht="13.65" customHeight="1">
+      <c r="A34" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="4">
         <v>582.25</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" ht="13.65" customHeight="1">
+      <c r="A35" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="4">
         <v>359.03</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" ht="13.65" customHeight="1">
+      <c r="A36" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="4">
         <v>546.15</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" ht="13.65" customHeight="1">
+      <c r="A37" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="4">
         <v>1204.32</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" ht="13.65" customHeight="1">
+      <c r="A38" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="4">
         <v>587.77</v>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" ht="13.65" customHeight="1">
+      <c r="A39" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="C39" s="1">
-        <v>700.44</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="C39" s="4">
+        <v>700.4400000000001</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" ht="13.65" customHeight="1">
+      <c r="A40" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="4">
         <v>660.84</v>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" ht="13.65" customHeight="1">
+      <c r="A41" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="4">
         <v>1913.03</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" ht="13.65" customHeight="1">
+      <c r="A42" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="4">
         <v>1930.17</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" ht="13.65" customHeight="1">
+      <c r="A43" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="4">
         <v>614.1</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" ht="13.65" customHeight="1">
+      <c r="A44" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="4">
         <v>658.09</v>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="s">
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" ht="13.65" customHeight="1">
+      <c r="A45" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="4">
         <v>897.38</v>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" ht="13.65" customHeight="1">
+      <c r="A46" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="4">
         <v>751.15</v>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" ht="13.65" customHeight="1">
+      <c r="A47" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="4">
         <v>751.63</v>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="s">
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" ht="13.65" customHeight="1">
+      <c r="A48" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="C48" s="1">
-        <v>2121.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="s">
+      <c r="C48" s="4">
+        <v>2121</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" ht="13.65" customHeight="1">
+      <c r="A49" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="4">
         <v>660.7</v>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="s">
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" ht="13.65" customHeight="1">
+      <c r="A50" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="4">
         <v>514.64</v>
       </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="s">
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" ht="13.65" customHeight="1">
+      <c r="A51" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="4">
         <v>1885.58</v>
       </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="s">
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" ht="13.65" customHeight="1">
+      <c r="A52" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="4">
         <v>2131.16</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="s">
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" ht="13.65" customHeight="1">
+      <c r="A53" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="4">
         <v>2172.46</v>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="s">
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" ht="13.65" customHeight="1">
+      <c r="A54" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="4">
         <v>456.59</v>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="s">
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" ht="13.65" customHeight="1">
+      <c r="A55" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="4">
         <v>435.32</v>
       </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="s">
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" ht="13.65" customHeight="1">
+      <c r="A56" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="4">
         <v>733.58</v>
       </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="s">
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" ht="13.65" customHeight="1">
+      <c r="A57" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="4">
         <v>725.97</v>
       </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="s">
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" ht="13.65" customHeight="1">
+      <c r="A58" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="4">
         <v>539.11</v>
       </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="s">
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" ht="13.65" customHeight="1">
+      <c r="A59" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="4">
         <v>358.4</v>
       </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="s">
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" ht="13.65" customHeight="1">
+      <c r="A60" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="4">
         <v>605.1</v>
       </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="s">
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" ht="13.65" customHeight="1">
+      <c r="A61" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="4">
         <v>608.08</v>
       </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="s">
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" ht="13.65" customHeight="1">
+      <c r="A62" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="4">
         <v>423.37</v>
       </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="s">
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" ht="13.65" customHeight="1">
+      <c r="A63" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="4">
         <v>307.6</v>
       </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="s">
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" ht="13.65" customHeight="1">
+      <c r="A64" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="4">
         <v>1509.96</v>
       </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="s">
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" ht="13.65" customHeight="1">
+      <c r="A65" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="4">
         <v>397.29</v>
       </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="s">
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" ht="13.65" customHeight="1">
+      <c r="A66" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="4">
         <v>1250.57</v>
       </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="s">
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" ht="13.65" customHeight="1">
+      <c r="A67" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="4">
         <v>957.58</v>
       </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="s">
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" ht="13.65" customHeight="1">
+      <c r="A68" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="4">
         <v>2306.44</v>
       </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="s">
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" ht="13.65" customHeight="1">
+      <c r="A69" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="4">
         <v>2318.66</v>
       </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="s">
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" ht="13.65" customHeight="1">
+      <c r="A70" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="4">
         <v>953.84</v>
       </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="s">
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" ht="13.65" customHeight="1">
+      <c r="A71" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="4">
         <v>645.17</v>
       </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="s">
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" ht="13.65" customHeight="1">
+      <c r="A72" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="4">
         <v>939.41</v>
       </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="s">
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" ht="13.65" customHeight="1">
+      <c r="A73" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="4">
         <v>178.29</v>
       </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="s">
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" ht="13.65" customHeight="1">
+      <c r="A74" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="4">
         <v>178.9</v>
       </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="s">
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" ht="13.65" customHeight="1">
+      <c r="A75" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="4">
         <v>2445.83</v>
       </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="s">
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" ht="13.65" customHeight="1">
+      <c r="A76" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="4">
         <v>88.72</v>
       </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="s">
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" ht="13.65" customHeight="1">
+      <c r="A77" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="4">
         <v>196.98</v>
       </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="s">
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" ht="13.65" customHeight="1">
+      <c r="A78" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="4">
         <v>2296.19</v>
       </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="s">
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" ht="13.65" customHeight="1">
+      <c r="A79" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="4">
         <v>2455.17</v>
       </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="s">
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" ht="13.65" customHeight="1">
+      <c r="A80" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="4">
         <v>2333.86</v>
       </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="s">
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" ht="13.65" customHeight="1">
+      <c r="A81" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="4">
         <v>731.71</v>
       </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="s">
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" ht="13.65" customHeight="1">
+      <c r="A82" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="4">
         <v>866.09</v>
       </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="s">
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" ht="13.65" customHeight="1">
+      <c r="A83" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="4">
         <v>1227.91</v>
       </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="s">
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" ht="13.65" customHeight="1">
+      <c r="A84" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="4">
         <v>333.23</v>
       </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="s">
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" ht="13.65" customHeight="1">
+      <c r="A85" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" s="4">
         <v>35.13</v>
       </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="s">
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" ht="13.65" customHeight="1">
+      <c r="A86" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86" s="4">
         <v>849.54</v>
       </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="s">
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" ht="13.65" customHeight="1">
+      <c r="A87" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="C87" s="1">
-        <v>849.56</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="s">
+      <c r="C87" s="4">
+        <v>849.5599999999999</v>
+      </c>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" ht="13.65" customHeight="1">
+      <c r="A88" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="4">
         <v>737.89</v>
       </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="s">
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" ht="13.65" customHeight="1">
+      <c r="A89" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="4">
         <v>548.54</v>
       </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="s">
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" ht="13.65" customHeight="1">
+      <c r="A90" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" s="4">
         <v>1767.96</v>
       </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="s">
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" ht="13.65" customHeight="1">
+      <c r="A91" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91" s="4">
         <v>611.45</v>
       </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="s">
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" ht="13.65" customHeight="1">
+      <c r="A92" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92" s="4">
         <v>1602.86</v>
       </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="s">
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" ht="13.65" customHeight="1">
+      <c r="A93" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93" s="4">
         <v>1244.73</v>
       </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="s">
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" ht="13.65" customHeight="1">
+      <c r="A94" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94" s="4">
         <v>2584.12</v>
       </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="s">
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" ht="13.65" customHeight="1">
+      <c r="A95" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95" s="4">
         <v>2593.79</v>
       </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="s">
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" ht="13.65" customHeight="1">
+      <c r="A96" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96" s="4">
         <v>1254.32</v>
       </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="s">
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" ht="13.65" customHeight="1">
+      <c r="A97" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" s="4">
         <v>859.12</v>
       </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="s">
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" ht="13.65" customHeight="1">
+      <c r="A98" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="4">
         <v>1122.81</v>
       </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="s">
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" ht="13.65" customHeight="1">
+      <c r="A99" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="4">
         <v>180.11</v>
       </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="s">
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" ht="13.65" customHeight="1">
+      <c r="A100" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100" s="4">
         <v>179.81</v>
       </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="s">
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" ht="13.65" customHeight="1">
+      <c r="A101" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101" s="4">
         <v>2687.31</v>
       </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="s">
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" ht="13.65" customHeight="1">
+      <c r="A102" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102" s="4">
         <v>270.98</v>
       </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="s">
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+    </row>
+    <row r="103" ht="13.65" customHeight="1">
+      <c r="A103" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103" s="4">
         <v>480.87</v>
       </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="s">
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+    </row>
+    <row r="104" ht="13.65" customHeight="1">
+      <c r="A104" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104" s="4">
         <v>2582.2</v>
       </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="s">
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+    </row>
+    <row r="105" ht="13.65" customHeight="1">
+      <c r="A105" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105" s="4">
         <v>2696.06</v>
       </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="s">
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+    </row>
+    <row r="106" ht="13.65" customHeight="1">
+      <c r="A106" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106" s="4">
         <v>2491.16</v>
       </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="s">
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+    </row>
+    <row r="107" ht="13.65" customHeight="1">
+      <c r="A107" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107" s="4">
         <v>1035.87</v>
       </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="s">
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+    </row>
+    <row r="108" ht="13.65" customHeight="1">
+      <c r="A108" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108" s="4">
         <v>1197.02</v>
       </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="s">
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+    </row>
+    <row r="109" ht="13.65" customHeight="1">
+      <c r="A109" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C109" s="4">
         <v>1564.41</v>
       </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="s">
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" ht="13.65" customHeight="1">
+      <c r="A110" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C110" s="4">
         <v>429.38</v>
       </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="s">
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+    </row>
+    <row r="111" ht="13.65" customHeight="1">
+      <c r="A111" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111" s="4">
         <v>392.33</v>
       </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="s">
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" ht="13.65" customHeight="1">
+      <c r="A112" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C112" s="4">
         <v>8.18</v>
       </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="s">
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" ht="13.65" customHeight="1">
+      <c r="A113" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C113" s="4">
         <v>250.4</v>
       </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="s">
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+    </row>
+    <row r="114" ht="13.65" customHeight="1">
+      <c r="A114" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="C114" s="1">
+      <c r="C114" s="4">
         <v>308.65</v>
       </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="s">
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+    </row>
+    <row r="115" ht="13.65" customHeight="1">
+      <c r="A115" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="C115" s="1">
+      <c r="C115" s="4">
         <v>919.97</v>
       </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="s">
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+    </row>
+    <row r="116" ht="13.65" customHeight="1">
+      <c r="A116" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="C116" s="1">
+      <c r="C116" s="4">
         <v>238.31</v>
       </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="s">
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+    </row>
+    <row r="117" ht="13.65" customHeight="1">
+      <c r="A117" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C117" s="4">
         <v>937.63</v>
       </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="s">
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+    </row>
+    <row r="118" ht="13.65" customHeight="1">
+      <c r="A118" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C118" s="4">
         <v>408.53</v>
       </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="s">
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+    </row>
+    <row r="119" ht="13.65" customHeight="1">
+      <c r="A119" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C119" s="4">
         <v>1734.62</v>
       </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="s">
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+    </row>
+    <row r="120" ht="13.65" customHeight="1">
+      <c r="A120" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="C120" s="1">
+      <c r="C120" s="4">
         <v>1744.25</v>
       </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="s">
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+    </row>
+    <row r="121" ht="13.65" customHeight="1">
+      <c r="A121" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C121" s="4">
         <v>1184.59</v>
       </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="s">
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+    </row>
+    <row r="122" ht="13.65" customHeight="1">
+      <c r="A122" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="C122" s="1">
+      <c r="C122" s="4">
         <v>84.41</v>
       </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="s">
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+    </row>
+    <row r="123" ht="13.65" customHeight="1">
+      <c r="A123" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="C123" s="1">
+      <c r="C123" s="4">
         <v>357.66</v>
       </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="s">
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+    </row>
+    <row r="124" ht="13.65" customHeight="1">
+      <c r="A124" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="C124" s="1">
+      <c r="C124" s="4">
         <v>715.6</v>
       </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="s">
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+    </row>
+    <row r="125" ht="13.65" customHeight="1">
+      <c r="A125" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="C125" s="1">
+      <c r="C125" s="4">
         <v>720.64</v>
       </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="s">
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+    </row>
+    <row r="126" ht="13.65" customHeight="1">
+      <c r="A126" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="C126" s="1">
+      <c r="C126" s="4">
         <v>1848.41</v>
       </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="s">
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+    </row>
+    <row r="127" ht="13.65" customHeight="1">
+      <c r="A127" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="C127" s="1">
-        <v>665.81</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="s">
+      <c r="C127" s="4">
+        <v>665.8099999999999</v>
+      </c>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+    </row>
+    <row r="128" ht="13.65" customHeight="1">
+      <c r="A128" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B128" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="C128" s="1">
+      <c r="C128" s="4">
         <v>409.1</v>
       </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="s">
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+    </row>
+    <row r="129" ht="13.65" customHeight="1">
+      <c r="A129" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="C129" s="1">
+      <c r="C129" s="4">
         <v>1733.85</v>
       </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="s">
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+    </row>
+    <row r="130" ht="13.65" customHeight="1">
+      <c r="A130" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B130" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="C130" s="1">
+      <c r="C130" s="4">
         <v>1857.52</v>
       </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="s">
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+    </row>
+    <row r="131" ht="13.65" customHeight="1">
+      <c r="A131" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="C131" s="1">
+      <c r="C131" s="4">
         <v>1738.64</v>
       </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="s">
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+    </row>
+    <row r="132" ht="13.65" customHeight="1">
+      <c r="A132" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="C132" s="1">
+      <c r="C132" s="4">
         <v>259.42</v>
       </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="s">
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+    </row>
+    <row r="133" ht="13.65" customHeight="1">
+      <c r="A133" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="C133" s="1">
+      <c r="C133" s="4">
         <v>1009.41</v>
       </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="s">
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+    </row>
+    <row r="134" ht="13.65" customHeight="1">
+      <c r="A134" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="C134" s="1">
+      <c r="C134" s="4">
         <v>813.2</v>
       </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="s">
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+    </row>
+    <row r="135" ht="13.65" customHeight="1">
+      <c r="A135" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="C135" s="1">
+      <c r="C135" s="4">
         <v>437.5</v>
       </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="s">
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+    </row>
+    <row r="136" ht="13.65" customHeight="1">
+      <c r="A136" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B136" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="C136" s="1">
+      <c r="C136" s="4">
         <v>596.41</v>
       </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="s">
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+    </row>
+    <row r="137" ht="13.65" customHeight="1">
+      <c r="A137" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="C137" s="1">
+      <c r="C137" s="4">
         <v>257.2</v>
       </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="s">
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+    </row>
+    <row r="138" ht="13.65" customHeight="1">
+      <c r="A138" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B138" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="C138" s="1">
+      <c r="C138" s="4">
         <v>310.19</v>
       </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="s">
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+    </row>
+    <row r="139" ht="13.65" customHeight="1">
+      <c r="A139" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B139" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="C139" s="1">
+      <c r="C139" s="4">
         <v>919.35</v>
       </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="s">
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+    </row>
+    <row r="140" ht="13.65" customHeight="1">
+      <c r="A140" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="C140" s="1">
+      <c r="C140" s="4">
         <v>238.13</v>
       </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="s">
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+    </row>
+    <row r="141" ht="13.65" customHeight="1">
+      <c r="A141" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="C141" s="1">
+      <c r="C141" s="4">
         <v>944.13</v>
       </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="s">
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+    </row>
+    <row r="142" ht="13.65" customHeight="1">
+      <c r="A142" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="C142" s="1">
+      <c r="C142" s="4">
         <v>411.13</v>
       </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="s">
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+    </row>
+    <row r="143" ht="13.65" customHeight="1">
+      <c r="A143" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="C143" s="1">
+      <c r="C143" s="4">
         <v>1734.76</v>
       </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="s">
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+    </row>
+    <row r="144" ht="13.65" customHeight="1">
+      <c r="A144" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="C144" s="1">
+      <c r="C144" s="4">
         <v>1744.27</v>
       </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="s">
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+    </row>
+    <row r="145" ht="13.65" customHeight="1">
+      <c r="A145" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="C145" s="1">
+      <c r="C145" s="4">
         <v>1192.48</v>
       </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="s">
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+    </row>
+    <row r="146" ht="13.65" customHeight="1">
+      <c r="A146" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B146" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="C146" s="1">
+      <c r="C146" s="4">
         <v>76.25</v>
       </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="s">
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+    </row>
+    <row r="147" ht="13.65" customHeight="1">
+      <c r="A147" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B147" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="C147" s="1">
+      <c r="C147" s="4">
         <v>351.7</v>
       </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="s">
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+    </row>
+    <row r="148" ht="13.65" customHeight="1">
+      <c r="A148" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B148" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="C148" s="1">
+      <c r="C148" s="4">
         <v>716.89</v>
       </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="s">
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+    </row>
+    <row r="149" ht="13.65" customHeight="1">
+      <c r="A149" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B149" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="C149" s="1">
+      <c r="C149" s="4">
         <v>721.98</v>
       </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="s">
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+    </row>
+    <row r="150" ht="13.65" customHeight="1">
+      <c r="A150" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="C150" s="1">
+      <c r="C150" s="4">
         <v>1846.92</v>
       </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="s">
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+    </row>
+    <row r="151" ht="13.65" customHeight="1">
+      <c r="A151" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B151" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="C151" s="1">
-        <v>668.0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="s">
+      <c r="C151" s="4">
+        <v>668</v>
+      </c>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+    </row>
+    <row r="152" ht="13.65" customHeight="1">
+      <c r="A152" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B152" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="C152" s="1">
+      <c r="C152" s="4">
         <v>411.8</v>
       </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="s">
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+    </row>
+    <row r="153" ht="13.65" customHeight="1">
+      <c r="A153" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B153" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="C153" s="1">
+      <c r="C153" s="4">
         <v>1734.42</v>
       </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="s">
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
+    </row>
+    <row r="154" ht="13.65" customHeight="1">
+      <c r="A154" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B154" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="C154" s="1">
-        <v>1856.0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="s">
+      <c r="C154" s="4">
+        <v>1856</v>
+      </c>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
+    </row>
+    <row r="155" ht="13.65" customHeight="1">
+      <c r="A155" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B155" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="C155" s="1">
+      <c r="C155" s="4">
         <v>1734.2</v>
       </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="s">
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
+    </row>
+    <row r="156" ht="13.65" customHeight="1">
+      <c r="A156" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B156" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="C156" s="1">
+      <c r="C156" s="4">
         <v>265.74</v>
       </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="s">
+      <c r="D156" s="3"/>
+      <c r="E156" s="3"/>
+    </row>
+    <row r="157" ht="13.65" customHeight="1">
+      <c r="A157" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B157" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="C157" s="1">
+      <c r="C157" s="4">
         <v>1017.48</v>
       </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="s">
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
+    </row>
+    <row r="158" ht="13.65" customHeight="1">
+      <c r="A158" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B158" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="C158" s="1">
-        <v>818.43</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="s">
+      <c r="C158" s="4">
+        <v>818.4299999999999</v>
+      </c>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
+    </row>
+    <row r="159" ht="13.65" customHeight="1">
+      <c r="A159" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B159" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="C159" s="1">
+      <c r="C159" s="4">
         <v>435.93</v>
       </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="s">
+      <c r="D159" s="3"/>
+      <c r="E159" s="3"/>
+    </row>
+    <row r="160" ht="13.65" customHeight="1">
+      <c r="A160" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B160" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="C160" s="1">
-        <v>599.82</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="s">
+      <c r="C160" s="4">
+        <v>599.8200000000001</v>
+      </c>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
+    </row>
+    <row r="161" ht="13.65" customHeight="1">
+      <c r="A161" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B161" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="C161" s="1">
+      <c r="C161" s="4">
         <v>222.72</v>
       </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="s">
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
+    </row>
+    <row r="162" ht="13.65" customHeight="1">
+      <c r="A162" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B162" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="C162" s="1">
+      <c r="C162" s="4">
         <v>1094.66</v>
       </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="s">
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
+    </row>
+    <row r="163" ht="13.65" customHeight="1">
+      <c r="A163" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B163" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="C163" s="1">
+      <c r="C163" s="4">
         <v>236.4</v>
       </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="s">
+      <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
+    </row>
+    <row r="164" ht="13.65" customHeight="1">
+      <c r="A164" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B164" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="C164" s="1">
-        <v>892.19</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="s">
+      <c r="C164" s="4">
+        <v>892.1900000000001</v>
+      </c>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
+    </row>
+    <row r="165" ht="13.65" customHeight="1">
+      <c r="A165" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B165" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="C165" s="1">
-        <v>536.0</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="s">
+      <c r="C165" s="4">
+        <v>536</v>
+      </c>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
+    </row>
+    <row r="166" ht="13.65" customHeight="1">
+      <c r="A166" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B166" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="C166" s="1">
+      <c r="C166" s="4">
         <v>1883.73</v>
       </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="s">
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+    </row>
+    <row r="167" ht="13.65" customHeight="1">
+      <c r="A167" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B167" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="C167" s="1">
+      <c r="C167" s="4">
         <v>1896.28</v>
       </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="s">
+      <c r="D167" s="3"/>
+      <c r="E167" s="3"/>
+    </row>
+    <row r="168" ht="13.65" customHeight="1">
+      <c r="A168" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B168" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="C168" s="1">
-        <v>951.06</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="s">
+      <c r="C168" s="4">
+        <v>951.0599999999999</v>
+      </c>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
+    </row>
+    <row r="169" ht="13.65" customHeight="1">
+      <c r="A169" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B169" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="C169" s="1">
+      <c r="C169" s="4">
         <v>325.96</v>
       </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="s">
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
+    </row>
+    <row r="170" ht="13.65" customHeight="1">
+      <c r="A170" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="B170" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="C170" s="1">
-        <v>606.44</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="s">
+      <c r="C170" s="4">
+        <v>606.4400000000001</v>
+      </c>
+      <c r="D170" s="3"/>
+      <c r="E170" s="3"/>
+    </row>
+    <row r="171" ht="13.65" customHeight="1">
+      <c r="A171" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B171" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="C171" s="1">
+      <c r="C171" s="4">
         <v>573.92</v>
       </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="s">
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
+    </row>
+    <row r="172" ht="13.65" customHeight="1">
+      <c r="A172" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B172" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="C172" s="1">
+      <c r="C172" s="4">
         <v>577.37</v>
       </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="s">
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
+    </row>
+    <row r="173" ht="13.65" customHeight="1">
+      <c r="A173" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="B173" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="C173" s="1">
+      <c r="C173" s="4">
         <v>2032.64</v>
       </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="s">
+      <c r="D173" s="3"/>
+      <c r="E173" s="3"/>
+    </row>
+    <row r="174" ht="13.65" customHeight="1">
+      <c r="A174" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="B174" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="C174" s="1">
+      <c r="C174" s="4">
         <v>502.08</v>
       </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="s">
+      <c r="D174" s="3"/>
+      <c r="E174" s="3"/>
+    </row>
+    <row r="175" ht="13.65" customHeight="1">
+      <c r="A175" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="B175" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="C175" s="1">
+      <c r="C175" s="4">
         <v>257.05</v>
       </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="s">
+      <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
+    </row>
+    <row r="176" ht="13.65" customHeight="1">
+      <c r="A176" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="B176" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="C176" s="1">
+      <c r="C176" s="4">
         <v>1872.86</v>
       </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="s">
+      <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
+    </row>
+    <row r="177" ht="13.65" customHeight="1">
+      <c r="A177" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="B177" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="C177" s="1">
+      <c r="C177" s="4">
         <v>2042.18</v>
       </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="s">
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
+    </row>
+    <row r="178" ht="13.65" customHeight="1">
+      <c r="A178" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="B178" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="C178" s="1">
+      <c r="C178" s="4">
         <v>1971.84</v>
       </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="s">
+      <c r="D178" s="3"/>
+      <c r="E178" s="3"/>
+    </row>
+    <row r="179" ht="13.65" customHeight="1">
+      <c r="A179" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B179" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="C179" s="1">
+      <c r="C179" s="4">
         <v>308.34</v>
       </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="s">
+      <c r="D179" s="3"/>
+      <c r="E179" s="3"/>
+    </row>
+    <row r="180" ht="13.65" customHeight="1">
+      <c r="A180" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B180" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="C180" s="1">
-        <v>788.06</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="s">
+      <c r="C180" s="4">
+        <v>788.0599999999999</v>
+      </c>
+      <c r="D180" s="3"/>
+      <c r="E180" s="3"/>
+    </row>
+    <row r="181" ht="13.65" customHeight="1">
+      <c r="A181" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B181" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="C181" s="1">
+      <c r="C181" s="4">
         <v>828.7</v>
       </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="s">
+      <c r="D181" s="3"/>
+      <c r="E181" s="3"/>
+    </row>
+    <row r="182" ht="13.65" customHeight="1">
+      <c r="A182" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B182" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="C182" s="1">
+      <c r="C182" s="4">
         <v>411.05</v>
       </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="s">
+      <c r="D182" s="3"/>
+      <c r="E182" s="3"/>
+    </row>
+    <row r="183" ht="13.65" customHeight="1">
+      <c r="A183" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B183" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="C183" s="1">
+      <c r="C183" s="4">
         <v>403.95</v>
       </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="s">
+      <c r="D183" s="3"/>
+      <c r="E183" s="3"/>
+    </row>
+    <row r="184" ht="13.65" customHeight="1">
+      <c r="A184" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B184" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="C184" s="1">
+      <c r="C184" s="4">
         <v>1227.56</v>
       </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="s">
+      <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
+    </row>
+    <row r="185" ht="13.65" customHeight="1">
+      <c r="A185" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="B185" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="C185" s="1">
+      <c r="C185" s="4">
         <v>91.22</v>
       </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="s">
+      <c r="D185" s="3"/>
+      <c r="E185" s="3"/>
+    </row>
+    <row r="186" ht="13.65" customHeight="1">
+      <c r="A186" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B186" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="C186" s="1">
+      <c r="C186" s="4">
         <v>1113.93</v>
       </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="s">
+      <c r="D186" s="3"/>
+      <c r="E186" s="3"/>
+    </row>
+    <row r="187" ht="13.65" customHeight="1">
+      <c r="A187" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B187" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="C187" s="1">
-        <v>696.19</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="s">
+      <c r="C187" s="4">
+        <v>696.1900000000001</v>
+      </c>
+      <c r="D187" s="3"/>
+      <c r="E187" s="3"/>
+    </row>
+    <row r="188" ht="13.65" customHeight="1">
+      <c r="A188" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B188" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="C188" s="1">
+      <c r="C188" s="4">
         <v>2038.43</v>
       </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="s">
+      <c r="D188" s="3"/>
+      <c r="E188" s="3"/>
+    </row>
+    <row r="189" ht="13.65" customHeight="1">
+      <c r="A189" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B189" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="C189" s="1">
+      <c r="C189" s="4">
         <v>2048.81</v>
       </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="s">
+      <c r="D189" s="3"/>
+      <c r="E189" s="3"/>
+    </row>
+    <row r="190" ht="13.65" customHeight="1">
+      <c r="A190" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="B190" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="C190" s="1">
+      <c r="C190" s="4">
         <v>1086.56</v>
       </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="s">
+      <c r="D190" s="3"/>
+      <c r="E190" s="3"/>
+    </row>
+    <row r="191" ht="13.65" customHeight="1">
+      <c r="A191" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B191" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="C191" s="1">
+      <c r="C191" s="4">
         <v>339.08</v>
       </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="s">
+      <c r="D191" s="3"/>
+      <c r="E191" s="3"/>
+    </row>
+    <row r="192" ht="13.65" customHeight="1">
+      <c r="A192" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="B192" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="C192" s="1">
+      <c r="C192" s="4">
         <v>631.91</v>
       </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="s">
+      <c r="D192" s="3"/>
+      <c r="E192" s="3"/>
+    </row>
+    <row r="193" ht="13.65" customHeight="1">
+      <c r="A193" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B193" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="C193" s="1">
+      <c r="C193" s="4">
         <v>407.1</v>
       </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="s">
+      <c r="D193" s="3"/>
+      <c r="E193" s="3"/>
+    </row>
+    <row r="194" ht="13.65" customHeight="1">
+      <c r="A194" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="B194" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="C194" s="1">
+      <c r="C194" s="4">
         <v>412.07</v>
       </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="s">
+      <c r="D194" s="3"/>
+      <c r="E194" s="3"/>
+    </row>
+    <row r="195" ht="13.65" customHeight="1">
+      <c r="A195" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B195" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="C195" s="1">
+      <c r="C195" s="4">
         <v>2157.05</v>
       </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="s">
+      <c r="D195" s="3"/>
+      <c r="E195" s="3"/>
+    </row>
+    <row r="196" ht="13.65" customHeight="1">
+      <c r="A196" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B196" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="C196" s="1">
+      <c r="C196" s="4">
         <v>359.38</v>
       </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="s">
+      <c r="D196" s="3"/>
+      <c r="E196" s="3"/>
+    </row>
+    <row r="197" ht="13.65" customHeight="1">
+      <c r="A197" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B197" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="C197" s="1">
+      <c r="C197" s="4">
         <v>113.83</v>
       </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="s">
+      <c r="D197" s="3"/>
+      <c r="E197" s="3"/>
+    </row>
+    <row r="198" ht="13.65" customHeight="1">
+      <c r="A198" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="B198" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="C198" s="1">
+      <c r="C198" s="4">
         <v>2034.72</v>
       </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="s">
+      <c r="D198" s="3"/>
+      <c r="E198" s="3"/>
+    </row>
+    <row r="199" ht="13.65" customHeight="1">
+      <c r="A199" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="B199" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="C199" s="1">
+      <c r="C199" s="4">
         <v>2166.15</v>
       </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="s">
+      <c r="D199" s="3"/>
+      <c r="E199" s="3"/>
+    </row>
+    <row r="200" ht="13.65" customHeight="1">
+      <c r="A200" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B200" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="C200" s="1">
+      <c r="C200" s="4">
         <v>2026.45</v>
       </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="s">
+      <c r="D200" s="3"/>
+      <c r="E200" s="3"/>
+    </row>
+    <row r="201" ht="13.65" customHeight="1">
+      <c r="A201" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B201" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="C201" s="1">
+      <c r="C201" s="4">
         <v>492.39</v>
       </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="s">
+      <c r="D201" s="3"/>
+      <c r="E201" s="3"/>
+    </row>
+    <row r="202" ht="13.65" customHeight="1">
+      <c r="A202" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B202" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="C202" s="1">
+      <c r="C202" s="4">
         <v>947.88</v>
       </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="s">
+      <c r="D202" s="3"/>
+      <c r="E202" s="3"/>
+    </row>
+    <row r="203" ht="13.65" customHeight="1">
+      <c r="A203" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="B203" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="C203" s="1">
+      <c r="C203" s="4">
         <v>1039.77</v>
       </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="s">
+      <c r="D203" s="3"/>
+      <c r="E203" s="3"/>
+    </row>
+    <row r="204" ht="13.65" customHeight="1">
+      <c r="A204" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="B204" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="C204" s="1">
+      <c r="C204" s="4">
         <v>188.78</v>
       </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="s">
+      <c r="D204" s="3"/>
+      <c r="E204" s="3"/>
+    </row>
+    <row r="205" ht="13.65" customHeight="1">
+      <c r="A205" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B205" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="C205" s="1">
+      <c r="C205" s="4">
         <v>306.57</v>
       </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="s">
+      <c r="D205" s="3"/>
+      <c r="E205" s="3"/>
+    </row>
+    <row r="206" ht="13.65" customHeight="1">
+      <c r="A206" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="B206" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="C206" s="1">
+      <c r="C206" s="4">
         <v>1156.93</v>
       </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="s">
+      <c r="D206" s="3"/>
+      <c r="E206" s="3"/>
+    </row>
+    <row r="207" ht="13.65" customHeight="1">
+      <c r="A207" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B207" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="C207" s="1">
-        <v>879.57</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="s">
+      <c r="C207" s="4">
+        <v>879.5700000000001</v>
+      </c>
+      <c r="D207" s="3"/>
+      <c r="E207" s="3"/>
+    </row>
+    <row r="208" ht="13.65" customHeight="1">
+      <c r="A208" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B208" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="C208" s="1">
+      <c r="C208" s="4">
         <v>564.47</v>
       </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="s">
+      <c r="D208" s="3"/>
+      <c r="E208" s="3"/>
+    </row>
+    <row r="209" ht="13.65" customHeight="1">
+      <c r="A209" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="B209" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="C209" s="1">
+      <c r="C209" s="4">
         <v>823.26</v>
       </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="s">
+      <c r="D209" s="3"/>
+      <c r="E209" s="3"/>
+    </row>
+    <row r="210" ht="13.65" customHeight="1">
+      <c r="A210" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="B210" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="C210" s="1">
+      <c r="C210" s="4">
         <v>830.29</v>
       </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="s">
+      <c r="D210" s="3"/>
+      <c r="E210" s="3"/>
+    </row>
+    <row r="211" ht="13.65" customHeight="1">
+      <c r="A211" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B211" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="C211" s="1">
+      <c r="C211" s="4">
         <v>1724.95</v>
       </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="s">
+      <c r="D211" s="3"/>
+      <c r="E211" s="3"/>
+    </row>
+    <row r="212" ht="13.65" customHeight="1">
+      <c r="A212" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="B212" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="C212" s="1">
+      <c r="C212" s="4">
         <v>911.25</v>
       </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="s">
+      <c r="D212" s="3"/>
+      <c r="E212" s="3"/>
+    </row>
+    <row r="213" ht="13.65" customHeight="1">
+      <c r="A213" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B213" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="C213" s="1">
+      <c r="C213" s="4">
         <v>698.74</v>
       </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="s">
+      <c r="D213" s="3"/>
+      <c r="E213" s="3"/>
+    </row>
+    <row r="214" ht="13.65" customHeight="1">
+      <c r="A214" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="B214" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="C214" s="1">
+      <c r="C214" s="4">
         <v>1634.51</v>
       </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="s">
+      <c r="D214" s="3"/>
+      <c r="E214" s="3"/>
+    </row>
+    <row r="215" ht="13.65" customHeight="1">
+      <c r="A215" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B215" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="C215" s="1">
+      <c r="C215" s="4">
         <v>1639.36</v>
       </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="s">
+      <c r="D215" s="3"/>
+      <c r="E215" s="3"/>
+    </row>
+    <row r="216" ht="13.65" customHeight="1">
+      <c r="A216" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B216" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="C216" s="1">
+      <c r="C216" s="4">
         <v>938.1</v>
       </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="s">
+      <c r="D216" s="3"/>
+      <c r="E216" s="3"/>
+    </row>
+    <row r="217" ht="13.65" customHeight="1">
+      <c r="A217" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B217" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="C217" s="1">
+      <c r="C217" s="4">
         <v>1579.17</v>
       </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="s">
+      <c r="D217" s="3"/>
+      <c r="E217" s="3"/>
+    </row>
+    <row r="218" ht="13.65" customHeight="1">
+      <c r="A218" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="B218" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="C218" s="1">
+      <c r="C218" s="4">
         <v>1320.4</v>
       </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="s">
+      <c r="D218" s="3"/>
+      <c r="E218" s="3"/>
+    </row>
+    <row r="219" ht="13.65" customHeight="1">
+      <c r="A219" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="B219" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="C219" s="1">
-        <v>834.06</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="s">
+      <c r="C219" s="4">
+        <v>834.0599999999999</v>
+      </c>
+      <c r="D219" s="3"/>
+      <c r="E219" s="3"/>
+    </row>
+    <row r="220" ht="13.65" customHeight="1">
+      <c r="A220" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="B220" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="C220" s="1">
+      <c r="C220" s="4">
         <v>947.7</v>
       </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="s">
+      <c r="D220" s="3"/>
+      <c r="E220" s="3"/>
+    </row>
+    <row r="221" ht="13.65" customHeight="1">
+      <c r="A221" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="B221" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="C221" s="1">
+      <c r="C221" s="4">
         <v>1019.96</v>
       </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="s">
+      <c r="D221" s="3"/>
+      <c r="E221" s="3"/>
+    </row>
+    <row r="222" ht="13.65" customHeight="1">
+      <c r="A222" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="B222" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="C222" s="1">
+      <c r="C222" s="4">
         <v>797.51</v>
       </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="s">
+      <c r="D222" s="3"/>
+      <c r="E222" s="3"/>
+    </row>
+    <row r="223" ht="13.65" customHeight="1">
+      <c r="A223" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="B223" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="C223" s="1">
+      <c r="C223" s="4">
         <v>1521.78</v>
       </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="s">
+      <c r="D223" s="3"/>
+      <c r="E223" s="3"/>
+    </row>
+    <row r="224" ht="13.65" customHeight="1">
+      <c r="A224" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="B224" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="C224" s="1">
+      <c r="C224" s="4">
         <v>654.02</v>
       </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="s">
+      <c r="D224" s="3"/>
+      <c r="E224" s="3"/>
+    </row>
+    <row r="225" ht="13.65" customHeight="1">
+      <c r="A225" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="B225" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="C225" s="1">
+      <c r="C225" s="4">
         <v>1345.57</v>
       </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="s">
+      <c r="D225" s="3"/>
+      <c r="E225" s="3"/>
+    </row>
+    <row r="226" ht="13.65" customHeight="1">
+      <c r="A226" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="B226" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="C226" s="1">
+      <c r="C226" s="4">
         <v>1494.89</v>
       </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="s">
+      <c r="D226" s="3"/>
+      <c r="E226" s="3"/>
+    </row>
+    <row r="227" ht="13.65" customHeight="1">
+      <c r="A227" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="B227" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="C227" s="1">
+      <c r="C227" s="4">
         <v>1105.34</v>
       </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="s">
+      <c r="D227" s="3"/>
+      <c r="E227" s="3"/>
+    </row>
+    <row r="228" ht="13.65" customHeight="1">
+      <c r="A228" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="B228" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="C228" s="1">
+      <c r="C228" s="4">
         <v>641.16</v>
       </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="s">
+      <c r="D228" s="3"/>
+      <c r="E228" s="3"/>
+    </row>
+    <row r="229" ht="13.65" customHeight="1">
+      <c r="A229" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="B229" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="C229" s="1">
+      <c r="C229" s="4">
         <v>1972.87</v>
       </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="s">
+      <c r="D229" s="3"/>
+      <c r="E229" s="3"/>
+    </row>
+    <row r="230" ht="13.65" customHeight="1">
+      <c r="A230" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="B230" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="C230" s="1">
+      <c r="C230" s="4">
         <v>1982.4</v>
       </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="s">
+      <c r="D230" s="3"/>
+      <c r="E230" s="3"/>
+    </row>
+    <row r="231" ht="13.65" customHeight="1">
+      <c r="A231" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="B231" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="C231" s="1">
+      <c r="C231" s="4">
         <v>1152.77</v>
       </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="s">
+      <c r="D231" s="3"/>
+      <c r="E231" s="3"/>
+    </row>
+    <row r="232" ht="13.65" customHeight="1">
+      <c r="A232" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="B232" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="C232" s="1">
+      <c r="C232" s="4">
         <v>255.13</v>
       </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="s">
+      <c r="D232" s="3"/>
+      <c r="E232" s="3"/>
+    </row>
+    <row r="233" ht="13.65" customHeight="1">
+      <c r="A233" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="B233" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="C233" s="1">
+      <c r="C233" s="4">
         <v>543.76</v>
       </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="s">
+      <c r="D233" s="3"/>
+      <c r="E233" s="3"/>
+    </row>
+    <row r="234" ht="13.65" customHeight="1">
+      <c r="A234" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="B234" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="C234" s="1">
+      <c r="C234" s="4">
         <v>483.75</v>
       </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="s">
+      <c r="D234" s="3"/>
+      <c r="E234" s="3"/>
+    </row>
+    <row r="235" ht="13.65" customHeight="1">
+      <c r="A235" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="B235" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="C235" s="1">
+      <c r="C235" s="4">
         <v>489.16</v>
       </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="s">
+      <c r="D235" s="3"/>
+      <c r="E235" s="3"/>
+    </row>
+    <row r="236" ht="13.65" customHeight="1">
+      <c r="A236" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="B236" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="C236" s="1">
+      <c r="C236" s="4">
         <v>2081.39</v>
       </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="s">
+      <c r="D236" s="3"/>
+      <c r="E236" s="3"/>
+    </row>
+    <row r="237" ht="13.65" customHeight="1">
+      <c r="A237" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B237" s="1" t="s">
+      <c r="B237" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="C237" s="1">
+      <c r="C237" s="4">
         <v>444.03</v>
       </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="s">
+      <c r="D237" s="3"/>
+      <c r="E237" s="3"/>
+    </row>
+    <row r="238" ht="13.65" customHeight="1">
+      <c r="A238" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="B238" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="C238" s="1">
+      <c r="C238" s="4">
         <v>205.05</v>
       </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="s">
+      <c r="D238" s="3"/>
+      <c r="E238" s="3"/>
+    </row>
+    <row r="239" ht="13.65" customHeight="1">
+      <c r="A239" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="B239" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="C239" s="1">
+      <c r="C239" s="4">
         <v>1972.08</v>
       </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="s">
+      <c r="D239" s="3"/>
+      <c r="E239" s="3"/>
+    </row>
+    <row r="240" ht="13.65" customHeight="1">
+      <c r="A240" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="B240" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="C240" s="1">
+      <c r="C240" s="4">
         <v>2090.35</v>
       </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="s">
+      <c r="D240" s="3"/>
+      <c r="E240" s="3"/>
+    </row>
+    <row r="241" ht="13.65" customHeight="1">
+      <c r="A241" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B241" s="1" t="s">
+      <c r="B241" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="C241" s="1">
+      <c r="C241" s="4">
         <v>1938.11</v>
       </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="s">
+      <c r="D241" s="3"/>
+      <c r="E241" s="3"/>
+    </row>
+    <row r="242" ht="13.65" customHeight="1">
+      <c r="A242" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="B242" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="C242" s="1">
+      <c r="C242" s="4">
         <v>455.2</v>
       </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="s">
+      <c r="D242" s="3"/>
+      <c r="E242" s="3"/>
+    </row>
+    <row r="243" ht="13.65" customHeight="1">
+      <c r="A243" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B243" s="1" t="s">
+      <c r="B243" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="C243" s="1">
+      <c r="C243" s="4">
         <v>1004.71</v>
       </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="s">
+      <c r="D243" s="3"/>
+      <c r="E243" s="3"/>
+    </row>
+    <row r="244" ht="13.65" customHeight="1">
+      <c r="A244" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="B244" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="C244" s="1">
+      <c r="C244" s="4">
         <v>1012.97</v>
       </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="s">
+      <c r="D244" s="3"/>
+      <c r="E244" s="3"/>
+    </row>
+    <row r="245" ht="13.65" customHeight="1">
+      <c r="A245" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="B245" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="C245" s="1">
+      <c r="C245" s="4">
         <v>206.05</v>
       </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="s">
+      <c r="D245" s="3"/>
+      <c r="E245" s="3"/>
+    </row>
+    <row r="246" ht="13.65" customHeight="1">
+      <c r="A246" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B246" s="1" t="s">
+      <c r="B246" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="C246" s="1">
+      <c r="C246" s="4">
         <v>397.48</v>
       </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="s">
+      <c r="D246" s="3"/>
+      <c r="E246" s="3"/>
+    </row>
+    <row r="247" ht="13.65" customHeight="1">
+      <c r="A247" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="B247" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="C247" s="1">
+      <c r="C247" s="4">
         <v>642.59</v>
       </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="s">
+      <c r="D247" s="3"/>
+      <c r="E247" s="3"/>
+    </row>
+    <row r="248" ht="13.65" customHeight="1">
+      <c r="A248" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="B248" s="1" t="s">
+      <c r="B248" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="C248" s="1">
+      <c r="C248" s="4">
         <v>1351.88</v>
       </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="s">
+      <c r="D248" s="3"/>
+      <c r="E248" s="3"/>
+    </row>
+    <row r="249" ht="13.65" customHeight="1">
+      <c r="A249" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="B249" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="C249" s="1">
+      <c r="C249" s="4">
         <v>1374.25</v>
       </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="s">
+      <c r="D249" s="3"/>
+      <c r="E249" s="3"/>
+    </row>
+    <row r="250" ht="13.65" customHeight="1">
+      <c r="A250" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="B250" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="C250" s="1">
-        <v>965.82</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="s">
+      <c r="C250" s="4">
+        <v>965.8200000000001</v>
+      </c>
+      <c r="D250" s="3"/>
+      <c r="E250" s="3"/>
+    </row>
+    <row r="251" ht="13.65" customHeight="1">
+      <c r="A251" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="B251" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="C251" s="1">
+      <c r="C251" s="4">
         <v>1002.33</v>
       </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="s">
+      <c r="D251" s="3"/>
+      <c r="E251" s="3"/>
+    </row>
+    <row r="252" ht="13.65" customHeight="1">
+      <c r="A252" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="B252" s="1" t="s">
+      <c r="B252" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="C252" s="1">
+      <c r="C252" s="4">
         <v>1056.04</v>
       </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="s">
+      <c r="D252" s="3"/>
+      <c r="E252" s="3"/>
+    </row>
+    <row r="253" ht="13.65" customHeight="1">
+      <c r="A253" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="B253" s="1" t="s">
+      <c r="B253" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="C253" s="1">
+      <c r="C253" s="4">
         <v>1425.63</v>
       </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="s">
+      <c r="D253" s="3"/>
+      <c r="E253" s="3"/>
+    </row>
+    <row r="254" ht="13.65" customHeight="1">
+      <c r="A254" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="B254" s="1" t="s">
+      <c r="B254" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="C254" s="1">
+      <c r="C254" s="4">
         <v>1427.29</v>
       </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="s">
+      <c r="D254" s="3"/>
+      <c r="E254" s="3"/>
+    </row>
+    <row r="255" ht="13.65" customHeight="1">
+      <c r="A255" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="B255" s="1" t="s">
+      <c r="B255" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="C255" s="1">
+      <c r="C255" s="4">
         <v>1633.79</v>
       </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="s">
+      <c r="D255" s="3"/>
+      <c r="E255" s="3"/>
+    </row>
+    <row r="256" ht="13.65" customHeight="1">
+      <c r="A256" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="B256" s="1" t="s">
+      <c r="B256" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="C256" s="1">
+      <c r="C256" s="4">
         <v>1339.14</v>
       </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="s">
+      <c r="D256" s="3"/>
+      <c r="E256" s="3"/>
+    </row>
+    <row r="257" ht="13.65" customHeight="1">
+      <c r="A257" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="B257" s="1" t="s">
+      <c r="B257" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="C257" s="1">
+      <c r="C257" s="4">
         <v>1136.8</v>
       </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="s">
+      <c r="D257" s="3"/>
+      <c r="E257" s="3"/>
+    </row>
+    <row r="258" ht="13.65" customHeight="1">
+      <c r="A258" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="B258" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="C258" s="1">
+      <c r="C258" s="4">
         <v>1304.15</v>
       </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="s">
+      <c r="D258" s="3"/>
+      <c r="E258" s="3"/>
+    </row>
+    <row r="259" ht="13.65" customHeight="1">
+      <c r="A259" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="B259" s="1" t="s">
+      <c r="B259" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="C259" s="1">
+      <c r="C259" s="4">
         <v>1644.29</v>
       </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="s">
+      <c r="D259" s="3"/>
+      <c r="E259" s="3"/>
+    </row>
+    <row r="260" ht="13.65" customHeight="1">
+      <c r="A260" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="B260" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="C260" s="1">
+      <c r="C260" s="4">
         <v>1890.8</v>
       </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="s">
+      <c r="D260" s="3"/>
+      <c r="E260" s="3"/>
+    </row>
+    <row r="261" ht="13.65" customHeight="1">
+      <c r="A261" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="B261" s="1" t="s">
+      <c r="B261" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="C261" s="1">
+      <c r="C261" s="4">
         <v>678.52</v>
       </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="s">
+      <c r="D261" s="3"/>
+      <c r="E261" s="3"/>
+    </row>
+    <row r="262" ht="13.65" customHeight="1">
+      <c r="A262" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="B262" s="1" t="s">
+      <c r="B262" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="C262" s="1">
+      <c r="C262" s="4">
         <v>782.45</v>
       </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="s">
+      <c r="D262" s="3"/>
+      <c r="E262" s="3"/>
+    </row>
+    <row r="263" ht="13.65" customHeight="1">
+      <c r="A263" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="B263" s="1" t="s">
+      <c r="B263" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="C263" s="1">
+      <c r="C263" s="4">
         <v>230.19</v>
       </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="s">
+      <c r="D263" s="3"/>
+      <c r="E263" s="3"/>
+    </row>
+    <row r="264" ht="13.65" customHeight="1">
+      <c r="A264" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="B264" s="1" t="s">
+      <c r="B264" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="C264" s="1">
+      <c r="C264" s="4">
         <v>1300.16</v>
       </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="s">
+      <c r="D264" s="3"/>
+      <c r="E264" s="3"/>
+    </row>
+    <row r="265" ht="13.65" customHeight="1">
+      <c r="A265" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="B265" s="1" t="s">
+      <c r="B265" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="C265" s="1">
+      <c r="C265" s="4">
         <v>1219.57</v>
       </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="s">
+      <c r="D265" s="3"/>
+      <c r="E265" s="3"/>
+    </row>
+    <row r="266" ht="13.65" customHeight="1">
+      <c r="A266" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B266" s="1" t="s">
+      <c r="B266" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="C266" s="1">
+      <c r="C266" s="4">
         <v>1349.1</v>
       </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="s">
+      <c r="D266" s="3"/>
+      <c r="E266" s="3"/>
+    </row>
+    <row r="267" ht="13.65" customHeight="1">
+      <c r="A267" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B267" s="1" t="s">
+      <c r="B267" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="C267" s="1">
+      <c r="C267" s="4">
         <v>1361.1</v>
       </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="s">
+      <c r="D267" s="3"/>
+      <c r="E267" s="3"/>
+    </row>
+    <row r="268" ht="13.65" customHeight="1">
+      <c r="A268" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B268" s="1" t="s">
+      <c r="B268" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="C268" s="1">
+      <c r="C268" s="4">
         <v>1234.27</v>
       </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="s">
+      <c r="D268" s="3"/>
+      <c r="E268" s="3"/>
+    </row>
+    <row r="269" ht="13.65" customHeight="1">
+      <c r="A269" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B269" s="1" t="s">
+      <c r="B269" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="C269" s="1">
+      <c r="C269" s="4">
         <v>436.74</v>
       </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="s">
+      <c r="D269" s="3"/>
+      <c r="E269" s="3"/>
+    </row>
+    <row r="270" ht="13.65" customHeight="1">
+      <c r="A270" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B270" s="1" t="s">
+      <c r="B270" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="C270" s="1">
+      <c r="C270" s="4">
         <v>413.91</v>
       </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="s">
+      <c r="D270" s="3"/>
+      <c r="E270" s="3"/>
+    </row>
+    <row r="271" ht="13.65" customHeight="1">
+      <c r="A271" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="B271" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="C271" s="1">
+      <c r="C271" s="4">
         <v>1095.89</v>
       </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="s">
+      <c r="D271" s="3"/>
+      <c r="E271" s="3"/>
+    </row>
+    <row r="272" ht="13.65" customHeight="1">
+      <c r="A272" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B272" s="1" t="s">
+      <c r="B272" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="C272" s="1">
+      <c r="C272" s="4">
         <v>1100.15</v>
       </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="s">
+      <c r="D272" s="3"/>
+      <c r="E272" s="3"/>
+    </row>
+    <row r="273" ht="13.65" customHeight="1">
+      <c r="A273" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B273" s="1" t="s">
+      <c r="B273" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="C273" s="1">
+      <c r="C273" s="4">
         <v>1501.43</v>
       </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="s">
+      <c r="D273" s="3"/>
+      <c r="E273" s="3"/>
+    </row>
+    <row r="274" ht="13.65" customHeight="1">
+      <c r="A274" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B274" s="1" t="s">
+      <c r="B274" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="C274" s="1">
+      <c r="C274" s="4">
         <v>1032.23</v>
       </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="s">
+      <c r="D274" s="3"/>
+      <c r="E274" s="3"/>
+    </row>
+    <row r="275" ht="13.65" customHeight="1">
+      <c r="A275" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B275" s="1" t="s">
+      <c r="B275" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="C275" s="1">
-        <v>775.94</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="s">
+      <c r="C275" s="4">
+        <v>775.9400000000001</v>
+      </c>
+      <c r="D275" s="3"/>
+      <c r="E275" s="3"/>
+    </row>
+    <row r="276" ht="13.65" customHeight="1">
+      <c r="A276" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B276" s="1" t="s">
+      <c r="B276" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="C276" s="1">
+      <c r="C276" s="4">
         <v>1341.16</v>
       </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="s">
+      <c r="D276" s="3"/>
+      <c r="E276" s="3"/>
+    </row>
+    <row r="277" ht="13.65" customHeight="1">
+      <c r="A277" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B277" s="1" t="s">
+      <c r="B277" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="C277" s="1">
+      <c r="C277" s="4">
         <v>1511.15</v>
       </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="s">
+      <c r="D277" s="3"/>
+      <c r="E277" s="3"/>
+    </row>
+    <row r="278" ht="13.65" customHeight="1">
+      <c r="A278" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B278" s="1" t="s">
+      <c r="B278" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="C278" s="1">
+      <c r="C278" s="4">
         <v>1512.08</v>
       </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="s">
+      <c r="D278" s="3"/>
+      <c r="E278" s="3"/>
+    </row>
+    <row r="279" ht="13.65" customHeight="1">
+      <c r="A279" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B279" s="1" t="s">
+      <c r="B279" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="C279" s="1">
+      <c r="C279" s="4">
         <v>233.18</v>
       </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="s">
+      <c r="D279" s="3"/>
+      <c r="E279" s="3"/>
+    </row>
+    <row r="280" ht="13.65" customHeight="1">
+      <c r="A280" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B280" s="1" t="s">
+      <c r="B280" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="C280" s="1">
+      <c r="C280" s="4">
         <v>1033.44</v>
       </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="s">
+      <c r="D280" s="3"/>
+      <c r="E280" s="3"/>
+    </row>
+    <row r="281" ht="13.65" customHeight="1">
+      <c r="A281" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B281" s="1" t="s">
+      <c r="B281" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="C281" s="1">
+      <c r="C281" s="4">
         <v>458.19</v>
       </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="s">
+      <c r="D281" s="3"/>
+      <c r="E281" s="3"/>
+    </row>
+    <row r="282" ht="13.65" customHeight="1">
+      <c r="A282" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B282" s="1" t="s">
+      <c r="B282" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="C282" s="1">
+      <c r="C282" s="4">
         <v>844.73</v>
       </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="s">
+      <c r="D282" s="3"/>
+      <c r="E282" s="3"/>
+    </row>
+    <row r="283" ht="13.65" customHeight="1">
+      <c r="A283" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B283" s="1" t="s">
+      <c r="B283" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="C283" s="1">
+      <c r="C283" s="4">
         <v>939.64</v>
       </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="s">
+      <c r="D283" s="3"/>
+      <c r="E283" s="3"/>
+    </row>
+    <row r="284" ht="13.65" customHeight="1">
+      <c r="A284" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B284" s="1" t="s">
+      <c r="B284" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="C284" s="1">
+      <c r="C284" s="4">
         <v>27.87</v>
       </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="s">
+      <c r="D284" s="3"/>
+      <c r="E284" s="3"/>
+    </row>
+    <row r="285" ht="13.65" customHeight="1">
+      <c r="A285" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B285" s="1" t="s">
+      <c r="B285" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="C285" s="1">
+      <c r="C285" s="4">
         <v>2315.6</v>
       </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="s">
+      <c r="D285" s="3"/>
+      <c r="E285" s="3"/>
+    </row>
+    <row r="286" ht="13.65" customHeight="1">
+      <c r="A286" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B286" s="1" t="s">
+      <c r="B286" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="C286" s="1">
+      <c r="C286" s="4">
         <v>1732.08</v>
       </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="s">
+      <c r="D286" s="3"/>
+      <c r="E286" s="3"/>
+    </row>
+    <row r="287" ht="13.65" customHeight="1">
+      <c r="A287" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B287" s="1" t="s">
+      <c r="B287" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="C287" s="1">
+      <c r="C287" s="4">
         <v>1517.28</v>
       </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="s">
+      <c r="D287" s="3"/>
+      <c r="E287" s="3"/>
+    </row>
+    <row r="288" ht="13.65" customHeight="1">
+      <c r="A288" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B288" s="1" t="s">
+      <c r="B288" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="C288" s="1">
+      <c r="C288" s="4">
         <v>2442.89</v>
       </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="s">
+      <c r="D288" s="3"/>
+      <c r="E288" s="3"/>
+    </row>
+    <row r="289" ht="13.65" customHeight="1">
+      <c r="A289" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B289" s="1" t="s">
+      <c r="B289" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="C289" s="1">
+      <c r="C289" s="4">
         <v>2447.37</v>
       </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="s">
+      <c r="D289" s="3"/>
+      <c r="E289" s="3"/>
+    </row>
+    <row r="290" ht="13.65" customHeight="1">
+      <c r="A290" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B290" s="1" t="s">
+      <c r="B290" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="C290" s="1">
+      <c r="C290" s="4">
         <v>364.68</v>
       </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="s">
+      <c r="D290" s="3"/>
+      <c r="E290" s="3"/>
+    </row>
+    <row r="291" ht="13.65" customHeight="1">
+      <c r="A291" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B291" s="1" t="s">
+      <c r="B291" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="C291" s="1">
+      <c r="C291" s="4">
         <v>2381.21</v>
       </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="s">
+      <c r="D291" s="3"/>
+      <c r="E291" s="3"/>
+    </row>
+    <row r="292" ht="13.65" customHeight="1">
+      <c r="A292" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B292" s="1" t="s">
+      <c r="B292" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="C292" s="1">
+      <c r="C292" s="4">
         <v>2124.13</v>
       </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="s">
+      <c r="D292" s="3"/>
+      <c r="E292" s="3"/>
+    </row>
+    <row r="293" ht="13.65" customHeight="1">
+      <c r="A293" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B293" s="1" t="s">
+      <c r="B293" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="C293" s="1">
+      <c r="C293" s="4">
         <v>86.23</v>
       </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="s">
+      <c r="D293" s="3"/>
+      <c r="E293" s="3"/>
+    </row>
+    <row r="294" ht="13.65" customHeight="1">
+      <c r="A294" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B294" s="1" t="s">
+      <c r="B294" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="C294" s="1">
+      <c r="C294" s="4">
         <v>373.15</v>
       </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="s">
+      <c r="D294" s="3"/>
+      <c r="E294" s="3"/>
+    </row>
+    <row r="295" ht="13.65" customHeight="1">
+      <c r="A295" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B295" s="1" t="s">
+      <c r="B295" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="C295" s="1">
+      <c r="C295" s="4">
         <v>979.46</v>
       </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="s">
+      <c r="D295" s="3"/>
+      <c r="E295" s="3"/>
+    </row>
+    <row r="296" ht="13.65" customHeight="1">
+      <c r="A296" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B296" s="1" t="s">
+      <c r="B296" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="C296" s="1">
+      <c r="C296" s="4">
         <v>1576.12</v>
       </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="s">
+      <c r="D296" s="3"/>
+      <c r="E296" s="3"/>
+    </row>
+    <row r="297" ht="13.65" customHeight="1">
+      <c r="A297" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B297" s="1" t="s">
+      <c r="B297" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="C297" s="1">
+      <c r="C297" s="4">
         <v>2125.44</v>
       </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="s">
+      <c r="D297" s="3"/>
+      <c r="E297" s="3"/>
+    </row>
+    <row r="298" ht="13.65" customHeight="1">
+      <c r="A298" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B298" s="1" t="s">
+      <c r="B298" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="C298" s="1">
+      <c r="C298" s="4">
         <v>1204.22</v>
       </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="s">
+      <c r="D298" s="3"/>
+      <c r="E298" s="3"/>
+    </row>
+    <row r="299" ht="13.65" customHeight="1">
+      <c r="A299" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B299" s="1" t="s">
+      <c r="B299" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="C299" s="1">
+      <c r="C299" s="4">
         <v>2165.93</v>
       </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="s">
+      <c r="D299" s="3"/>
+      <c r="E299" s="3"/>
+    </row>
+    <row r="300" ht="13.65" customHeight="1">
+      <c r="A300" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B300" s="1" t="s">
+      <c r="B300" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="C300" s="1">
+      <c r="C300" s="4">
         <v>2287.67</v>
       </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="s">
+      <c r="D300" s="3"/>
+      <c r="E300" s="3"/>
+    </row>
+    <row r="301" ht="13.65" customHeight="1">
+      <c r="A301" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B301" s="1" t="s">
+      <c r="B301" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="C301" s="1">
+      <c r="C301" s="4">
         <v>2337.29</v>
       </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="s">
+      <c r="D301" s="3"/>
+      <c r="E301" s="3"/>
+    </row>
+    <row r="302" ht="13.65" customHeight="1">
+      <c r="A302" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B302" s="1" t="s">
+      <c r="B302" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="C302" s="1">
+      <c r="C302" s="4">
         <v>1740.39</v>
       </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="s">
+      <c r="D302" s="3"/>
+      <c r="E302" s="3"/>
+    </row>
+    <row r="303" ht="13.65" customHeight="1">
+      <c r="A303" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B303" s="1" t="s">
+      <c r="B303" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="C303" s="1">
+      <c r="C303" s="4">
         <v>1522.1</v>
       </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="s">
+      <c r="D303" s="3"/>
+      <c r="E303" s="3"/>
+    </row>
+    <row r="304" ht="13.65" customHeight="1">
+      <c r="A304" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B304" s="1" t="s">
+      <c r="B304" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="C304" s="1">
+      <c r="C304" s="4">
         <v>2453.8</v>
       </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="s">
+      <c r="D304" s="3"/>
+      <c r="E304" s="3"/>
+    </row>
+    <row r="305" ht="13.65" customHeight="1">
+      <c r="A305" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B305" s="1" t="s">
+      <c r="B305" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="C305" s="1">
+      <c r="C305" s="4">
         <v>2458.34</v>
       </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="s">
+      <c r="D305" s="3"/>
+      <c r="E305" s="3"/>
+    </row>
+    <row r="306" ht="13.65" customHeight="1">
+      <c r="A306" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B306" s="1" t="s">
+      <c r="B306" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="C306" s="1">
+      <c r="C306" s="4">
         <v>337.02</v>
       </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="s">
+      <c r="D306" s="3"/>
+      <c r="E306" s="3"/>
+    </row>
+    <row r="307" ht="13.65" customHeight="1">
+      <c r="A307" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B307" s="1" t="s">
+      <c r="B307" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="C307" s="1">
+      <c r="C307" s="4">
         <v>2392.88</v>
       </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="s">
+      <c r="D307" s="3"/>
+      <c r="E307" s="3"/>
+    </row>
+    <row r="308" ht="13.65" customHeight="1">
+      <c r="A308" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B308" s="1" t="s">
+      <c r="B308" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="C308" s="1">
+      <c r="C308" s="4">
         <v>2135.47</v>
       </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="s">
+      <c r="D308" s="3"/>
+      <c r="E308" s="3"/>
+    </row>
+    <row r="309" ht="13.65" customHeight="1">
+      <c r="A309" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B309" s="1" t="s">
+      <c r="B309" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="C309" s="1">
+      <c r="C309" s="4">
         <v>113.08</v>
       </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="s">
+      <c r="D309" s="3"/>
+      <c r="E309" s="3"/>
+    </row>
+    <row r="310" ht="13.65" customHeight="1">
+      <c r="A310" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B310" s="1" t="s">
+      <c r="B310" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="C310" s="1">
+      <c r="C310" s="4">
         <v>345.43</v>
       </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="s">
+      <c r="D310" s="3"/>
+      <c r="E310" s="3"/>
+    </row>
+    <row r="311" ht="13.65" customHeight="1">
+      <c r="A311" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B311" s="1" t="s">
+      <c r="B311" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="C311" s="1">
+      <c r="C311" s="4">
         <v>956.74</v>
       </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="s">
+      <c r="D311" s="3"/>
+      <c r="E311" s="3"/>
+    </row>
+    <row r="312" ht="13.65" customHeight="1">
+      <c r="A312" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B312" s="1" t="s">
+      <c r="B312" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="C312" s="1">
+      <c r="C312" s="4">
         <v>1589.02</v>
       </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="s">
+      <c r="D312" s="3"/>
+      <c r="E312" s="3"/>
+    </row>
+    <row r="313" ht="13.65" customHeight="1">
+      <c r="A313" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B313" s="1" t="s">
+      <c r="B313" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="C313" s="1">
+      <c r="C313" s="4">
         <v>2146.53</v>
       </c>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="s">
+      <c r="D313" s="3"/>
+      <c r="E313" s="3"/>
+    </row>
+    <row r="314" ht="13.65" customHeight="1">
+      <c r="A314" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B314" s="1" t="s">
+      <c r="B314" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="C314" s="1">
+      <c r="C314" s="4">
         <v>1224.07</v>
       </c>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="s">
+      <c r="D314" s="3"/>
+      <c r="E314" s="3"/>
+    </row>
+    <row r="315" ht="13.65" customHeight="1">
+      <c r="A315" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B315" s="1" t="s">
+      <c r="B315" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="C315" s="1">
+      <c r="C315" s="4">
         <v>2174.48</v>
       </c>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="s">
+      <c r="D315" s="3"/>
+      <c r="E315" s="3"/>
+    </row>
+    <row r="316" ht="13.65" customHeight="1">
+      <c r="A316" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B316" s="1" t="s">
+      <c r="B316" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="C316" s="1">
+      <c r="C316" s="4">
         <v>2300.23</v>
       </c>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="s">
+      <c r="D316" s="3"/>
+      <c r="E316" s="3"/>
+    </row>
+    <row r="317" ht="13.65" customHeight="1">
+      <c r="A317" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B317" s="1" t="s">
+      <c r="B317" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="C317" s="1">
+      <c r="C317" s="4">
         <v>1267.39</v>
       </c>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="s">
+      <c r="D317" s="3"/>
+      <c r="E317" s="3"/>
+    </row>
+    <row r="318" ht="13.65" customHeight="1">
+      <c r="A318" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B318" s="1" t="s">
+      <c r="B318" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="C318" s="1">
+      <c r="C318" s="4">
         <v>1510.87</v>
       </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="s">
+      <c r="D318" s="3"/>
+      <c r="E318" s="3"/>
+    </row>
+    <row r="319" ht="13.65" customHeight="1">
+      <c r="A319" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B319" s="1" t="s">
+      <c r="B319" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="C319" s="1">
+      <c r="C319" s="4">
         <v>1098.58</v>
       </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="s">
+      <c r="D319" s="3"/>
+      <c r="E319" s="3"/>
+    </row>
+    <row r="320" ht="13.65" customHeight="1">
+      <c r="A320" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B320" s="1" t="s">
+      <c r="B320" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="C320" s="1">
+      <c r="C320" s="4">
         <v>1095.45</v>
       </c>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="s">
+      <c r="D320" s="3"/>
+      <c r="E320" s="3"/>
+    </row>
+    <row r="321" ht="13.65" customHeight="1">
+      <c r="A321" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B321" s="1" t="s">
+      <c r="B321" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="C321" s="1">
+      <c r="C321" s="4">
         <v>2580.84</v>
       </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="s">
+      <c r="D321" s="3"/>
+      <c r="E321" s="3"/>
+    </row>
+    <row r="322" ht="13.65" customHeight="1">
+      <c r="A322" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B322" s="1" t="s">
+      <c r="B322" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="C322" s="1">
+      <c r="C322" s="4">
         <v>1016.49</v>
       </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="s">
+      <c r="D322" s="3"/>
+      <c r="E322" s="3"/>
+    </row>
+    <row r="323" ht="13.65" customHeight="1">
+      <c r="A323" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B323" s="1" t="s">
+      <c r="B323" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="C323" s="1">
+      <c r="C323" s="4">
         <v>1010.98</v>
       </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="s">
+      <c r="D323" s="3"/>
+      <c r="E323" s="3"/>
+    </row>
+    <row r="324" ht="13.65" customHeight="1">
+      <c r="A324" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B324" s="1" t="s">
+      <c r="B324" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="C324" s="1">
+      <c r="C324" s="4">
         <v>2269.71</v>
       </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="s">
+      <c r="D324" s="3"/>
+      <c r="E324" s="3"/>
+    </row>
+    <row r="325" ht="13.65" customHeight="1">
+      <c r="A325" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B325" s="1" t="s">
+      <c r="B325" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="C325" s="1">
+      <c r="C325" s="4">
         <v>2591.31</v>
       </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="s">
+      <c r="D325" s="3"/>
+      <c r="E325" s="3"/>
+    </row>
+    <row r="326" ht="13.65" customHeight="1">
+      <c r="A326" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B326" s="1" t="s">
+      <c r="B326" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="C326" s="1">
-        <v>2732.0</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="s">
+      <c r="C326" s="4">
+        <v>2732</v>
+      </c>
+      <c r="D326" s="3"/>
+      <c r="E326" s="3"/>
+    </row>
+    <row r="327" ht="13.65" customHeight="1">
+      <c r="A327" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B327" s="1" t="s">
+      <c r="B327" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="C327" s="1">
+      <c r="C327" s="4">
         <v>1058.93</v>
       </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="s">
+      <c r="D327" s="3"/>
+      <c r="E327" s="3"/>
+    </row>
+    <row r="328" ht="13.65" customHeight="1">
+      <c r="A328" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B328" s="1" t="s">
+      <c r="B328" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="C328" s="1">
+      <c r="C328" s="4">
         <v>203.44</v>
       </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="s">
+      <c r="D328" s="3"/>
+      <c r="E328" s="3"/>
+    </row>
+    <row r="329" ht="13.65" customHeight="1">
+      <c r="A329" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B329" s="1" t="s">
+      <c r="B329" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="C329" s="1">
-        <v>1124.0</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="s">
+      <c r="C329" s="4">
+        <v>1124</v>
+      </c>
+      <c r="D329" s="3"/>
+      <c r="E329" s="3"/>
+    </row>
+    <row r="330" ht="13.65" customHeight="1">
+      <c r="A330" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B330" s="1" t="s">
+      <c r="B330" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="C330" s="1">
+      <c r="C330" s="4">
         <v>1232.28</v>
       </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="s">
+      <c r="D330" s="3"/>
+      <c r="E330" s="3"/>
+    </row>
+    <row r="331" ht="13.65" customHeight="1">
+      <c r="A331" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B331" s="1" t="s">
+      <c r="B331" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="C331" s="1">
+      <c r="C331" s="4">
         <v>921.5</v>
       </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="s">
+      <c r="D331" s="3"/>
+      <c r="E331" s="3"/>
+    </row>
+    <row r="332" ht="13.65" customHeight="1">
+      <c r="A332" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="B332" s="1" t="s">
+      <c r="B332" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="C332" s="1">
+      <c r="C332" s="4">
         <v>296.8</v>
       </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="s">
+      <c r="D332" s="3"/>
+      <c r="E332" s="3"/>
+    </row>
+    <row r="333" ht="13.65" customHeight="1">
+      <c r="A333" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="B333" s="1" t="s">
+      <c r="B333" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="C333" s="1">
+      <c r="C333" s="4">
         <v>738.64</v>
       </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="s">
+      <c r="D333" s="3"/>
+      <c r="E333" s="3"/>
+    </row>
+    <row r="334" ht="13.65" customHeight="1">
+      <c r="A334" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="B334" s="1" t="s">
+      <c r="B334" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="C334" s="1">
+      <c r="C334" s="4">
         <v>744.12</v>
       </c>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="s">
+      <c r="D334" s="3"/>
+      <c r="E334" s="3"/>
+    </row>
+    <row r="335" ht="13.65" customHeight="1">
+      <c r="A335" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="B335" s="1" t="s">
+      <c r="B335" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="C335" s="1">
+      <c r="C335" s="4">
         <v>1828.95</v>
       </c>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="s">
+      <c r="D335" s="3"/>
+      <c r="E335" s="3"/>
+    </row>
+    <row r="336" ht="13.65" customHeight="1">
+      <c r="A336" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="B336" s="1" t="s">
+      <c r="B336" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="C336" s="1">
+      <c r="C336" s="4">
         <v>697.89</v>
       </c>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="s">
+      <c r="D336" s="3"/>
+      <c r="E336" s="3"/>
+    </row>
+    <row r="337" ht="13.65" customHeight="1">
+      <c r="A337" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="B337" s="1" t="s">
+      <c r="B337" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="C337" s="1">
+      <c r="C337" s="4">
         <v>448.39</v>
       </c>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="s">
+      <c r="D337" s="3"/>
+      <c r="E337" s="3"/>
+    </row>
+    <row r="338" ht="13.65" customHeight="1">
+      <c r="A338" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="B338" s="1" t="s">
+      <c r="B338" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="C338" s="1">
+      <c r="C338" s="4">
         <v>1735.65</v>
       </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="s">
+      <c r="D338" s="3"/>
+      <c r="E338" s="3"/>
+    </row>
+    <row r="339" ht="13.65" customHeight="1">
+      <c r="A339" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="B339" s="1" t="s">
+      <c r="B339" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="C339" s="1">
+      <c r="C339" s="4">
         <v>1837.8</v>
       </c>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="s">
+      <c r="D339" s="3"/>
+      <c r="E339" s="3"/>
+    </row>
+    <row r="340" ht="13.65" customHeight="1">
+      <c r="A340" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="B340" s="1" t="s">
+      <c r="B340" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="C340" s="1">
+      <c r="C340" s="4">
         <v>1689.34</v>
       </c>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="s">
+      <c r="D340" s="3"/>
+      <c r="E340" s="3"/>
+    </row>
+    <row r="341" ht="13.65" customHeight="1">
+      <c r="A341" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="B341" s="1" t="s">
+      <c r="B341" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="C341" s="1">
+      <c r="C341" s="4">
         <v>325.5</v>
       </c>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="s">
+      <c r="D341" s="3"/>
+      <c r="E341" s="3"/>
+    </row>
+    <row r="342" ht="13.65" customHeight="1">
+      <c r="A342" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="B342" s="1" t="s">
+      <c r="B342" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="C342" s="1">
+      <c r="C342" s="4">
         <v>1093.38</v>
       </c>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="s">
+      <c r="D342" s="3"/>
+      <c r="E342" s="3"/>
+    </row>
+    <row r="343" ht="13.65" customHeight="1">
+      <c r="A343" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="B343" s="1" t="s">
+      <c r="B343" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="C343" s="1">
+      <c r="C343" s="4">
         <v>865.03</v>
       </c>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="s">
+      <c r="D343" s="3"/>
+      <c r="E343" s="3"/>
+    </row>
+    <row r="344" ht="13.65" customHeight="1">
+      <c r="A344" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="B344" s="1" t="s">
+      <c r="B344" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="C344" s="1">
+      <c r="C344" s="4">
         <v>434.32</v>
       </c>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="s">
+      <c r="D344" s="3"/>
+      <c r="E344" s="3"/>
+    </row>
+    <row r="345" ht="13.65" customHeight="1">
+      <c r="A345" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="B345" s="1" t="s">
+      <c r="B345" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="C345" s="1">
-        <v>640.57</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="s">
+      <c r="C345" s="4">
+        <v>640.5700000000001</v>
+      </c>
+      <c r="D345" s="3"/>
+      <c r="E345" s="3"/>
+    </row>
+    <row r="346" ht="13.65" customHeight="1">
+      <c r="A346" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B346" s="1" t="s">
+      <c r="B346" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="C346" s="1">
+      <c r="C346" s="4">
         <v>1020.16</v>
       </c>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="s">
+      <c r="D346" s="3"/>
+      <c r="E346" s="3"/>
+    </row>
+    <row r="347" ht="13.65" customHeight="1">
+      <c r="A347" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B347" s="1" t="s">
+      <c r="B347" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="C347" s="1">
+      <c r="C347" s="4">
         <v>1025.98</v>
       </c>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="s">
+      <c r="D347" s="3"/>
+      <c r="E347" s="3"/>
+    </row>
+    <row r="348" ht="13.65" customHeight="1">
+      <c r="A348" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B348" s="1" t="s">
+      <c r="B348" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="C348" s="1">
+      <c r="C348" s="4">
         <v>1574.37</v>
       </c>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="s">
+      <c r="D348" s="3"/>
+      <c r="E348" s="3"/>
+    </row>
+    <row r="349" ht="13.65" customHeight="1">
+      <c r="A349" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B349" s="1" t="s">
+      <c r="B349" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="C349" s="1">
+      <c r="C349" s="4">
         <v>987.33</v>
       </c>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="s">
+      <c r="D349" s="3"/>
+      <c r="E349" s="3"/>
+    </row>
+    <row r="350" ht="13.65" customHeight="1">
+      <c r="A350" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B350" s="1" t="s">
+      <c r="B350" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="C350" s="1">
+      <c r="C350" s="4">
         <v>743.38</v>
       </c>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="s">
+      <c r="D350" s="3"/>
+      <c r="E350" s="3"/>
+    </row>
+    <row r="351" ht="13.65" customHeight="1">
+      <c r="A351" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B351" s="1" t="s">
+      <c r="B351" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="C351" s="1">
+      <c r="C351" s="4">
         <v>1532.26</v>
       </c>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="s">
+      <c r="D351" s="3"/>
+      <c r="E351" s="3"/>
+    </row>
+    <row r="352" ht="13.65" customHeight="1">
+      <c r="A352" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B352" s="1" t="s">
+      <c r="B352" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="C352" s="1">
+      <c r="C352" s="4">
         <v>1582.66</v>
       </c>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="s">
+      <c r="D352" s="3"/>
+      <c r="E352" s="3"/>
+    </row>
+    <row r="353" ht="13.65" customHeight="1">
+      <c r="A353" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B353" s="1" t="s">
+      <c r="B353" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="C353" s="1">
+      <c r="C353" s="4">
         <v>1394.55</v>
       </c>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="s">
+      <c r="D353" s="3"/>
+      <c r="E353" s="3"/>
+    </row>
+    <row r="354" ht="13.65" customHeight="1">
+      <c r="A354" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B354" s="1" t="s">
+      <c r="B354" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="C354" s="1">
+      <c r="C354" s="4">
         <v>466.81</v>
       </c>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="s">
+      <c r="D354" s="3"/>
+      <c r="E354" s="3"/>
+    </row>
+    <row r="355" ht="13.65" customHeight="1">
+      <c r="A355" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B355" s="1" t="s">
+      <c r="B355" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="C355" s="1">
+      <c r="C355" s="4">
         <v>1323.78</v>
       </c>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="s">
+      <c r="D355" s="3"/>
+      <c r="E355" s="3"/>
+    </row>
+    <row r="356" ht="13.65" customHeight="1">
+      <c r="A356" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B356" s="1" t="s">
+      <c r="B356" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="C356" s="1">
+      <c r="C356" s="4">
         <v>867.97</v>
       </c>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="s">
+      <c r="D356" s="3"/>
+      <c r="E356" s="3"/>
+    </row>
+    <row r="357" ht="13.65" customHeight="1">
+      <c r="A357" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B357" s="1" t="s">
+      <c r="B357" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="C357" s="1">
+      <c r="C357" s="4">
         <v>693.87</v>
       </c>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="s">
+      <c r="D357" s="3"/>
+      <c r="E357" s="3"/>
+    </row>
+    <row r="358" ht="13.65" customHeight="1">
+      <c r="A358" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B358" s="1" t="s">
+      <c r="B358" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="C358" s="1">
+      <c r="C358" s="4">
         <v>936.26</v>
       </c>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="s">
+      <c r="D358" s="3"/>
+      <c r="E358" s="3"/>
+    </row>
+    <row r="359" ht="13.65" customHeight="1">
+      <c r="A359" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B359" s="1" t="s">
+      <c r="B359" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="C359" s="1">
+      <c r="C359" s="4">
         <v>6.54</v>
       </c>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="s">
+      <c r="D359" s="3"/>
+      <c r="E359" s="3"/>
+    </row>
+    <row r="360" ht="13.65" customHeight="1">
+      <c r="A360" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B360" s="1" t="s">
+      <c r="B360" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="C360" s="1">
+      <c r="C360" s="4">
         <v>2563.74</v>
       </c>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="s">
+      <c r="D360" s="3"/>
+      <c r="E360" s="3"/>
+    </row>
+    <row r="361" ht="13.65" customHeight="1">
+      <c r="A361" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B361" s="1" t="s">
+      <c r="B361" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="C361" s="1">
+      <c r="C361" s="4">
         <v>91.37</v>
       </c>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="s">
+      <c r="D361" s="3"/>
+      <c r="E361" s="3"/>
+    </row>
+    <row r="362" ht="13.65" customHeight="1">
+      <c r="A362" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B362" s="1" t="s">
+      <c r="B362" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="C362" s="1">
+      <c r="C362" s="4">
         <v>320.59</v>
       </c>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="s">
+      <c r="D362" s="3"/>
+      <c r="E362" s="3"/>
+    </row>
+    <row r="363" ht="13.65" customHeight="1">
+      <c r="A363" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B363" s="1" t="s">
+      <c r="B363" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="C363" s="1">
+      <c r="C363" s="4">
         <v>2436.96</v>
       </c>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="s">
+      <c r="D363" s="3"/>
+      <c r="E363" s="3"/>
+    </row>
+    <row r="364" ht="13.65" customHeight="1">
+      <c r="A364" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B364" s="1" t="s">
+      <c r="B364" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="C364" s="1">
+      <c r="C364" s="4">
         <v>2572.79</v>
       </c>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="s">
+      <c r="D364" s="3"/>
+      <c r="E364" s="3"/>
+    </row>
+    <row r="365" ht="13.65" customHeight="1">
+      <c r="A365" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B365" s="1" t="s">
+      <c r="B365" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="C365" s="1">
+      <c r="C365" s="4">
         <v>2408.27</v>
       </c>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="s">
+      <c r="D365" s="3"/>
+      <c r="E365" s="3"/>
+    </row>
+    <row r="366" ht="13.65" customHeight="1">
+      <c r="A366" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B366" s="1" t="s">
+      <c r="B366" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="C366" s="1">
+      <c r="C366" s="4">
         <v>878.5</v>
       </c>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="s">
+      <c r="D366" s="3"/>
+      <c r="E366" s="3"/>
+    </row>
+    <row r="367" ht="13.65" customHeight="1">
+      <c r="A367" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B367" s="1" t="s">
+      <c r="B367" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="C367" s="1">
+      <c r="C367" s="4">
         <v>1028.11</v>
       </c>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="s">
+      <c r="D367" s="3"/>
+      <c r="E367" s="3"/>
+    </row>
+    <row r="368" ht="13.65" customHeight="1">
+      <c r="A368" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B368" s="1" t="s">
+      <c r="B368" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="C368" s="1">
+      <c r="C368" s="4">
         <v>1394.32</v>
       </c>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="s">
+      <c r="D368" s="3"/>
+      <c r="E368" s="3"/>
+    </row>
+    <row r="369" ht="13.65" customHeight="1">
+      <c r="A369" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B369" s="1" t="s">
+      <c r="B369" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="C369" s="1">
+      <c r="C369" s="4">
         <v>340.74</v>
       </c>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="s">
+      <c r="D369" s="3"/>
+      <c r="E369" s="3"/>
+    </row>
+    <row r="370" ht="13.65" customHeight="1">
+      <c r="A370" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B370" s="1" t="s">
+      <c r="B370" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="C370" s="1">
+      <c r="C370" s="4">
         <v>212.28</v>
       </c>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="s">
+      <c r="D370" s="3"/>
+      <c r="E370" s="3"/>
+    </row>
+    <row r="371" ht="13.65" customHeight="1">
+      <c r="A371" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B371" s="1" t="s">
+      <c r="B371" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="C371" s="1">
+      <c r="C371" s="4">
         <v>2568.86</v>
       </c>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="s">
+      <c r="D371" s="3"/>
+      <c r="E371" s="3"/>
+    </row>
+    <row r="372" ht="13.65" customHeight="1">
+      <c r="A372" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B372" s="1" t="s">
+      <c r="B372" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="C372" s="1">
-        <v>91.18</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="s">
+      <c r="C372" s="4">
+        <v>91.18000000000001</v>
+      </c>
+      <c r="D372" s="3"/>
+      <c r="E372" s="3"/>
+    </row>
+    <row r="373" ht="13.65" customHeight="1">
+      <c r="A373" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B373" s="1" t="s">
+      <c r="B373" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="C373" s="1">
+      <c r="C373" s="4">
         <v>324.6</v>
       </c>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="s">
+      <c r="D373" s="3"/>
+      <c r="E373" s="3"/>
+    </row>
+    <row r="374" ht="13.65" customHeight="1">
+      <c r="A374" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B374" s="1" t="s">
+      <c r="B374" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="C374" s="1">
+      <c r="C374" s="4">
         <v>2441.26</v>
       </c>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="s">
+      <c r="D374" s="3"/>
+      <c r="E374" s="3"/>
+    </row>
+    <row r="375" ht="13.65" customHeight="1">
+      <c r="A375" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B375" s="1" t="s">
+      <c r="B375" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="C375" s="1">
+      <c r="C375" s="4">
         <v>2577.93</v>
       </c>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="s">
+      <c r="D375" s="3"/>
+      <c r="E375" s="3"/>
+    </row>
+    <row r="376" ht="13.65" customHeight="1">
+      <c r="A376" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B376" s="1" t="s">
+      <c r="B376" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="C376" s="1">
+      <c r="C376" s="4">
         <v>2414.34</v>
       </c>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="s">
+      <c r="D376" s="3"/>
+      <c r="E376" s="3"/>
+    </row>
+    <row r="377" ht="13.65" customHeight="1">
+      <c r="A377" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B377" s="1" t="s">
+      <c r="B377" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="C377" s="1">
-        <v>882.31</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="s">
+      <c r="C377" s="4">
+        <v>882.3099999999999</v>
+      </c>
+      <c r="D377" s="3"/>
+      <c r="E377" s="3"/>
+    </row>
+    <row r="378" ht="13.65" customHeight="1">
+      <c r="A378" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B378" s="1" t="s">
+      <c r="B378" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="C378" s="1">
+      <c r="C378" s="4">
         <v>1026.08</v>
       </c>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="s">
+      <c r="D378" s="3"/>
+      <c r="E378" s="3"/>
+    </row>
+    <row r="379" ht="13.65" customHeight="1">
+      <c r="A379" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B379" s="1" t="s">
+      <c r="B379" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="C379" s="1">
-        <v>1397.0</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="s">
+      <c r="C379" s="4">
+        <v>1397</v>
+      </c>
+      <c r="D379" s="3"/>
+      <c r="E379" s="3"/>
+    </row>
+    <row r="380" ht="13.65" customHeight="1">
+      <c r="A380" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B380" s="1" t="s">
+      <c r="B380" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="C380" s="1">
+      <c r="C380" s="4">
         <v>347.11</v>
       </c>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="s">
+      <c r="D380" s="3"/>
+      <c r="E380" s="3"/>
+    </row>
+    <row r="381" ht="13.65" customHeight="1">
+      <c r="A381" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B381" s="1" t="s">
+      <c r="B381" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="C381" s="1">
+      <c r="C381" s="4">
         <v>212.57</v>
       </c>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="s">
+      <c r="D381" s="3"/>
+      <c r="E381" s="3"/>
+    </row>
+    <row r="382" ht="13.65" customHeight="1">
+      <c r="A382" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B382" s="1" t="s">
+      <c r="B382" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="C382" s="1">
+      <c r="C382" s="4">
         <v>2512.65</v>
       </c>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="s">
+      <c r="D382" s="3"/>
+      <c r="E382" s="3"/>
+    </row>
+    <row r="383" ht="13.65" customHeight="1">
+      <c r="A383" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B383" s="1" t="s">
+      <c r="B383" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="C383" s="1">
+      <c r="C383" s="4">
         <v>2254.09</v>
       </c>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="s">
+      <c r="D383" s="3"/>
+      <c r="E383" s="3"/>
+    </row>
+    <row r="384" ht="13.65" customHeight="1">
+      <c r="A384" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B384" s="1" t="s">
+      <c r="B384" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="C384" s="1">
+      <c r="C384" s="4">
         <v>449.61</v>
       </c>
-    </row>
-    <row r="385">
-      <c r="A385" s="1" t="s">
+      <c r="D384" s="3"/>
+      <c r="E384" s="3"/>
+    </row>
+    <row r="385" ht="13.65" customHeight="1">
+      <c r="A385" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B385" s="1" t="s">
+      <c r="B385" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="C385" s="1">
+      <c r="C385" s="4">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="386">
-      <c r="A386" s="1" t="s">
+      <c r="D385" s="3"/>
+      <c r="E385" s="3"/>
+    </row>
+    <row r="386" ht="13.65" customHeight="1">
+      <c r="A386" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B386" s="1" t="s">
+      <c r="B386" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="C386" s="1">
+      <c r="C386" s="4">
         <v>679.24</v>
       </c>
-    </row>
-    <row r="387">
-      <c r="A387" s="1" t="s">
+      <c r="D386" s="3"/>
+      <c r="E386" s="3"/>
+    </row>
+    <row r="387" ht="13.65" customHeight="1">
+      <c r="A387" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B387" s="1" t="s">
+      <c r="B387" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="C387" s="1">
+      <c r="C387" s="4">
         <v>1734.6</v>
       </c>
-    </row>
-    <row r="388">
-      <c r="A388" s="1" t="s">
+      <c r="D387" s="3"/>
+      <c r="E387" s="3"/>
+    </row>
+    <row r="388" ht="13.65" customHeight="1">
+      <c r="A388" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B388" s="1" t="s">
+      <c r="B388" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="C388" s="1">
+      <c r="C388" s="4">
         <v>2383.64</v>
       </c>
-    </row>
-    <row r="389">
-      <c r="A389" s="1" t="s">
+      <c r="D388" s="3"/>
+      <c r="E388" s="3"/>
+    </row>
+    <row r="389" ht="13.65" customHeight="1">
+      <c r="A389" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B389" s="1" t="s">
+      <c r="B389" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="C389" s="1">
+      <c r="C389" s="4">
         <v>1456.84</v>
       </c>
-    </row>
-    <row r="390">
-      <c r="A390" s="1" t="s">
+      <c r="D389" s="3"/>
+      <c r="E389" s="3"/>
+    </row>
+    <row r="390" ht="13.65" customHeight="1">
+      <c r="A390" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B390" s="1" t="s">
+      <c r="B390" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="C390" s="1">
+      <c r="C390" s="4">
         <v>2259.09</v>
       </c>
-    </row>
-    <row r="391">
-      <c r="A391" s="1" t="s">
+      <c r="D390" s="3"/>
+      <c r="E390" s="3"/>
+    </row>
+    <row r="391" ht="13.65" customHeight="1">
+      <c r="A391" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B391" s="1" t="s">
+      <c r="B391" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="C391" s="1">
+      <c r="C391" s="4">
         <v>2431.74</v>
       </c>
-    </row>
-    <row r="392">
-      <c r="A392" s="1" t="s">
+      <c r="D391" s="3"/>
+      <c r="E391" s="3"/>
+    </row>
+    <row r="392" ht="13.65" customHeight="1">
+      <c r="A392" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B392" s="1" t="s">
+      <c r="B392" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="C392" s="1">
+      <c r="C392" s="4">
         <v>258.79</v>
       </c>
-    </row>
-    <row r="393">
-      <c r="A393" s="1" t="s">
+      <c r="D392" s="3"/>
+      <c r="E392" s="3"/>
+    </row>
+    <row r="393" ht="13.65" customHeight="1">
+      <c r="A393" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B393" s="1" t="s">
+      <c r="B393" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="C393" s="1">
+      <c r="C393" s="4">
         <v>2372.77</v>
       </c>
-    </row>
-    <row r="394">
-      <c r="A394" s="1" t="s">
+      <c r="D393" s="3"/>
+      <c r="E393" s="3"/>
+    </row>
+    <row r="394" ht="13.65" customHeight="1">
+      <c r="A394" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B394" s="1" t="s">
+      <c r="B394" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="C394" s="1">
+      <c r="C394" s="4">
         <v>2521.87</v>
       </c>
-    </row>
-    <row r="395">
-      <c r="A395" s="1" t="s">
+      <c r="D394" s="3"/>
+      <c r="E394" s="3"/>
+    </row>
+    <row r="395" ht="13.65" customHeight="1">
+      <c r="A395" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B395" s="1" t="s">
+      <c r="B395" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="C395" s="1">
+      <c r="C395" s="4">
         <v>2380.83</v>
       </c>
-    </row>
-    <row r="396">
-      <c r="A396" s="1" t="s">
+      <c r="D395" s="3"/>
+      <c r="E395" s="3"/>
+    </row>
+    <row r="396" ht="13.65" customHeight="1">
+      <c r="A396" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B396" s="1" t="s">
+      <c r="B396" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="C396" s="1">
-        <v>809.68</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" s="1" t="s">
+      <c r="C396" s="4">
+        <v>809.6799999999999</v>
+      </c>
+      <c r="D396" s="3"/>
+      <c r="E396" s="3"/>
+    </row>
+    <row r="397" ht="13.65" customHeight="1">
+      <c r="A397" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B397" s="1" t="s">
+      <c r="B397" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="C397" s="1">
+      <c r="C397" s="4">
         <v>939.96</v>
       </c>
-    </row>
-    <row r="398">
-      <c r="A398" s="1" t="s">
+      <c r="D397" s="3"/>
+      <c r="E397" s="3"/>
+    </row>
+    <row r="398" ht="13.65" customHeight="1">
+      <c r="A398" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B398" s="1" t="s">
+      <c r="B398" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="C398" s="1">
+      <c r="C398" s="4">
         <v>1314.09</v>
       </c>
-    </row>
-    <row r="399">
-      <c r="A399" s="1" t="s">
+      <c r="D398" s="3"/>
+      <c r="E398" s="3"/>
+    </row>
+    <row r="399" ht="13.65" customHeight="1">
+      <c r="A399" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B399" s="1" t="s">
+      <c r="B399" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="C399" s="1">
+      <c r="C399" s="4">
         <v>337.64</v>
       </c>
-    </row>
-    <row r="400">
-      <c r="A400" s="1" t="s">
+      <c r="D399" s="3"/>
+      <c r="E399" s="3"/>
+    </row>
+    <row r="400" ht="13.65" customHeight="1">
+      <c r="A400" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B400" s="1" t="s">
+      <c r="B400" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="C400" s="1">
+      <c r="C400" s="4">
         <v>121.6</v>
       </c>
-    </row>
-    <row r="401">
-      <c r="A401" s="1" t="s">
+      <c r="D400" s="3"/>
+      <c r="E400" s="3"/>
+    </row>
+    <row r="401" ht="13.65" customHeight="1">
+      <c r="A401" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B401" s="1" t="s">
+      <c r="B401" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="C401" s="1">
+      <c r="C401" s="4">
         <v>2117.09</v>
       </c>
-    </row>
-    <row r="402">
-      <c r="A402" s="1" t="s">
+      <c r="D401" s="3"/>
+      <c r="E401" s="3"/>
+    </row>
+    <row r="402" ht="13.65" customHeight="1">
+      <c r="A402" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B402" s="1" t="s">
+      <c r="B402" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="C402" s="1">
+      <c r="C402" s="4">
         <v>2263.33</v>
       </c>
-    </row>
-    <row r="403">
-      <c r="A403" s="1" t="s">
+      <c r="D402" s="3"/>
+      <c r="E402" s="3"/>
+    </row>
+    <row r="403" ht="13.65" customHeight="1">
+      <c r="A403" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B403" s="1" t="s">
+      <c r="B403" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="C403" s="1">
+      <c r="C403" s="4">
         <v>2137.5</v>
       </c>
-    </row>
-    <row r="404">
-      <c r="A404" s="1" t="s">
+      <c r="D403" s="3"/>
+      <c r="E403" s="3"/>
+    </row>
+    <row r="404" ht="13.65" customHeight="1">
+      <c r="A404" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B404" s="1" t="s">
+      <c r="B404" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="C404" s="1">
+      <c r="C404" s="4">
         <v>558.2</v>
       </c>
-    </row>
-    <row r="405">
-      <c r="A405" s="1" t="s">
+      <c r="D404" s="3"/>
+      <c r="E404" s="3"/>
+    </row>
+    <row r="405" ht="13.65" customHeight="1">
+      <c r="A405" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B405" s="1" t="s">
+      <c r="B405" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="C405" s="1">
+      <c r="C405" s="4">
         <v>886.85</v>
       </c>
-    </row>
-    <row r="406">
-      <c r="A406" s="1" t="s">
+      <c r="D405" s="3"/>
+      <c r="E405" s="3"/>
+    </row>
+    <row r="406" ht="13.65" customHeight="1">
+      <c r="A406" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B406" s="1" t="s">
+      <c r="B406" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="C406" s="1">
+      <c r="C406" s="4">
         <v>1084.9</v>
       </c>
-    </row>
-    <row r="407">
-      <c r="A407" s="1" t="s">
+      <c r="D406" s="3"/>
+      <c r="E406" s="3"/>
+    </row>
+    <row r="407" ht="13.65" customHeight="1">
+      <c r="A407" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B407" s="1" t="s">
+      <c r="B407" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="C407" s="1">
+      <c r="C407" s="4">
         <v>222.74</v>
       </c>
-    </row>
-    <row r="408">
-      <c r="A408" s="1" t="s">
+      <c r="D407" s="3"/>
+      <c r="E407" s="3"/>
+    </row>
+    <row r="408" ht="13.65" customHeight="1">
+      <c r="A408" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B408" s="1" t="s">
+      <c r="B408" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="C408" s="1">
+      <c r="C408" s="4">
         <v>193.25</v>
       </c>
-    </row>
-    <row r="409">
-      <c r="A409" s="1" t="s">
+      <c r="D408" s="3"/>
+      <c r="E408" s="3"/>
+    </row>
+    <row r="409" ht="13.65" customHeight="1">
+      <c r="A409" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B409" s="1" t="s">
+      <c r="B409" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="C409" s="1">
+      <c r="C409" s="4">
         <v>457.84</v>
       </c>
-    </row>
-    <row r="410">
-      <c r="A410" s="1" t="s">
+      <c r="D409" s="3"/>
+      <c r="E409" s="3"/>
+    </row>
+    <row r="410" ht="13.65" customHeight="1">
+      <c r="A410" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B410" s="1" t="s">
+      <c r="B410" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="C410" s="1">
+      <c r="C410" s="4">
         <v>1062.22</v>
       </c>
-    </row>
-    <row r="411">
-      <c r="A411" s="1" t="s">
+      <c r="D410" s="3"/>
+      <c r="E410" s="3"/>
+    </row>
+    <row r="411" ht="13.65" customHeight="1">
+      <c r="A411" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B411" s="1" t="s">
+      <c r="B411" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="C411" s="1">
+      <c r="C411" s="4">
         <v>1564.56</v>
       </c>
-    </row>
-    <row r="412">
-      <c r="A412" s="1" t="s">
+      <c r="D411" s="3"/>
+      <c r="E411" s="3"/>
+    </row>
+    <row r="412" ht="13.65" customHeight="1">
+      <c r="A412" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B412" s="1" t="s">
+      <c r="B412" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="C412" s="1">
+      <c r="C412" s="4">
         <v>2082.23</v>
       </c>
-    </row>
-    <row r="413">
-      <c r="A413" s="1" t="s">
+      <c r="D412" s="3"/>
+      <c r="E412" s="3"/>
+    </row>
+    <row r="413" ht="13.65" customHeight="1">
+      <c r="A413" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B413" s="1" t="s">
+      <c r="B413" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="C413" s="1">
+      <c r="C413" s="4">
         <v>1167.51</v>
       </c>
-    </row>
-    <row r="414">
-      <c r="A414" s="1" t="s">
+      <c r="D413" s="3"/>
+      <c r="E413" s="3"/>
+    </row>
+    <row r="414" ht="13.65" customHeight="1">
+      <c r="A414" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B414" s="1" t="s">
+      <c r="B414" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="C414" s="1">
+      <c r="C414" s="4">
         <v>2168.1</v>
       </c>
-    </row>
-    <row r="415">
-      <c r="A415" s="1" t="s">
+      <c r="D414" s="3"/>
+      <c r="E414" s="3"/>
+    </row>
+    <row r="415" ht="13.65" customHeight="1">
+      <c r="A415" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B415" s="1" t="s">
+      <c r="B415" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="C415" s="1">
+      <c r="C415" s="4">
         <v>2276.27</v>
       </c>
-    </row>
-    <row r="416">
-      <c r="A416" s="1" t="s">
+      <c r="D415" s="3"/>
+      <c r="E415" s="3"/>
+    </row>
+    <row r="416" ht="13.65" customHeight="1">
+      <c r="A416" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="B416" s="1" t="s">
+      <c r="B416" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="C416" s="1">
+      <c r="C416" s="4">
         <v>677.35</v>
       </c>
-    </row>
-    <row r="417">
-      <c r="A417" s="1" t="s">
+      <c r="D416" s="3"/>
+      <c r="E416" s="3"/>
+    </row>
+    <row r="417" ht="13.65" customHeight="1">
+      <c r="A417" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="B417" s="1" t="s">
+      <c r="B417" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="C417" s="1">
+      <c r="C417" s="4">
         <v>1744.32</v>
       </c>
-    </row>
-    <row r="418">
-      <c r="A418" s="1" t="s">
+      <c r="D417" s="3"/>
+      <c r="E417" s="3"/>
+    </row>
+    <row r="418" ht="13.65" customHeight="1">
+      <c r="A418" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="B418" s="1" t="s">
+      <c r="B418" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="C418" s="1">
+      <c r="C418" s="4">
         <v>2394.1</v>
       </c>
-    </row>
-    <row r="419">
-      <c r="A419" s="1" t="s">
+      <c r="D418" s="3"/>
+      <c r="E418" s="3"/>
+    </row>
+    <row r="419" ht="13.65" customHeight="1">
+      <c r="A419" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="B419" s="1" t="s">
+      <c r="B419" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="C419" s="1">
+      <c r="C419" s="4">
         <v>1467.31</v>
       </c>
-    </row>
-    <row r="420">
-      <c r="A420" s="1" t="s">
+      <c r="D419" s="3"/>
+      <c r="E419" s="3"/>
+    </row>
+    <row r="420" ht="13.65" customHeight="1">
+      <c r="A420" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="B420" s="1" t="s">
+      <c r="B420" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="C420" s="1">
+      <c r="C420" s="4">
         <v>2267.77</v>
       </c>
-    </row>
-    <row r="421">
-      <c r="A421" s="1" t="s">
+      <c r="D420" s="3"/>
+      <c r="E420" s="3"/>
+    </row>
+    <row r="421" ht="13.65" customHeight="1">
+      <c r="A421" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="B421" s="1" t="s">
+      <c r="B421" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="C421" s="1">
+      <c r="C421" s="4">
         <v>2441.15</v>
       </c>
-    </row>
-    <row r="422">
-      <c r="A422" s="1" t="s">
+      <c r="D421" s="3"/>
+      <c r="E421" s="3"/>
+    </row>
+    <row r="422" ht="13.65" customHeight="1">
+      <c r="A422" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B422" s="1" t="s">
+      <c r="B422" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="C422" s="1">
+      <c r="C422" s="4">
         <v>1724.4</v>
       </c>
-    </row>
-    <row r="423">
-      <c r="A423" s="1" t="s">
+      <c r="D422" s="3"/>
+      <c r="E422" s="3"/>
+    </row>
+    <row r="423" ht="13.65" customHeight="1">
+      <c r="A423" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B423" s="1" t="s">
+      <c r="B423" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="C423" s="1">
+      <c r="C423" s="4">
         <v>2528.65</v>
       </c>
-    </row>
-    <row r="424">
-      <c r="A424" s="1" t="s">
+      <c r="D423" s="3"/>
+      <c r="E423" s="3"/>
+    </row>
+    <row r="424" ht="13.65" customHeight="1">
+      <c r="A424" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B424" s="1" t="s">
+      <c r="B424" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="C424" s="1">
+      <c r="C424" s="4">
         <v>1670.59</v>
       </c>
-    </row>
-    <row r="425">
-      <c r="A425" s="1" t="s">
+      <c r="D424" s="3"/>
+      <c r="E424" s="3"/>
+    </row>
+    <row r="425" ht="13.65" customHeight="1">
+      <c r="A425" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B425" s="1" t="s">
+      <c r="B425" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="C425" s="1">
+      <c r="C425" s="4">
         <v>2072.07</v>
       </c>
-    </row>
-    <row r="426">
-      <c r="A426" s="1" t="s">
+      <c r="D425" s="3"/>
+      <c r="E425" s="3"/>
+    </row>
+    <row r="426" ht="13.65" customHeight="1">
+      <c r="A426" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B426" s="1" t="s">
+      <c r="B426" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="C426" s="1">
+      <c r="C426" s="4">
         <v>2329.9</v>
       </c>
-    </row>
-    <row r="427">
-      <c r="A427" s="1" t="s">
+      <c r="D426" s="3"/>
+      <c r="E426" s="3"/>
+    </row>
+    <row r="427" ht="13.65" customHeight="1">
+      <c r="A427" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B427" s="1" t="s">
+      <c r="B427" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="C427" s="1">
-        <v>865.44</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" s="1" t="s">
+      <c r="C427" s="4">
+        <v>865.4400000000001</v>
+      </c>
+      <c r="D427" s="3"/>
+      <c r="E427" s="3"/>
+    </row>
+    <row r="428" ht="13.65" customHeight="1">
+      <c r="A428" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B428" s="1" t="s">
+      <c r="B428" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="C428" s="1">
+      <c r="C428" s="4">
         <v>560.01</v>
       </c>
-    </row>
-    <row r="429">
-      <c r="A429" s="1" t="s">
+      <c r="D428" s="3"/>
+      <c r="E428" s="3"/>
+    </row>
+    <row r="429" ht="13.65" customHeight="1">
+      <c r="A429" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B429" s="1" t="s">
+      <c r="B429" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="C429" s="1">
+      <c r="C429" s="4">
         <v>660.75</v>
       </c>
-    </row>
-    <row r="430">
-      <c r="A430" s="1" t="s">
+      <c r="D429" s="3"/>
+      <c r="E429" s="3"/>
+    </row>
+    <row r="430" ht="13.65" customHeight="1">
+      <c r="A430" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B430" s="1" t="s">
+      <c r="B430" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="C430" s="1">
+      <c r="C430" s="4">
         <v>711.83</v>
       </c>
-    </row>
-    <row r="431">
-      <c r="A431" s="1" t="s">
+      <c r="D430" s="3"/>
+      <c r="E430" s="3"/>
+    </row>
+    <row r="431" ht="13.65" customHeight="1">
+      <c r="A431" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B431" s="1" t="s">
+      <c r="B431" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="C431" s="1">
+      <c r="C431" s="4">
         <v>927.52</v>
       </c>
-    </row>
-    <row r="432">
-      <c r="A432" s="1" t="s">
+      <c r="D431" s="3"/>
+      <c r="E431" s="3"/>
+    </row>
+    <row r="432" ht="13.65" customHeight="1">
+      <c r="A432" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B432" s="1" t="s">
+      <c r="B432" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="C432" s="1">
+      <c r="C432" s="4">
         <v>1109.4</v>
       </c>
-    </row>
-    <row r="433">
-      <c r="A433" s="1" t="s">
+      <c r="D432" s="3"/>
+      <c r="E432" s="3"/>
+    </row>
+    <row r="433" ht="13.65" customHeight="1">
+      <c r="A433" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B433" s="1" t="s">
+      <c r="B433" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="C433" s="1">
+      <c r="C433" s="4">
         <v>831.62</v>
       </c>
-    </row>
-    <row r="434">
-      <c r="A434" s="1" t="s">
+      <c r="D433" s="3"/>
+      <c r="E433" s="3"/>
+    </row>
+    <row r="434" ht="13.65" customHeight="1">
+      <c r="A434" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B434" s="1" t="s">
+      <c r="B434" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="C434" s="1">
+      <c r="C434" s="4">
         <v>1216.87</v>
       </c>
-    </row>
-    <row r="435">
-      <c r="A435" s="1" t="s">
+      <c r="D434" s="3"/>
+      <c r="E434" s="3"/>
+    </row>
+    <row r="435" ht="13.65" customHeight="1">
+      <c r="A435" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B435" s="1" t="s">
+      <c r="B435" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="C435" s="1">
+      <c r="C435" s="4">
         <v>1200.61</v>
       </c>
-    </row>
-    <row r="436">
-      <c r="A436" s="1" t="s">
+      <c r="D435" s="3"/>
+      <c r="E435" s="3"/>
+    </row>
+    <row r="436" ht="13.65" customHeight="1">
+      <c r="A436" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B436" s="1" t="s">
+      <c r="B436" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="C436" s="1">
+      <c r="C436" s="4">
         <v>351.63</v>
       </c>
+      <c r="D436" s="3"/>
+      <c r="E436" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/mlb_distances.xlsx
+++ b/mlb_distances.xlsx
@@ -22,94 +22,94 @@
     <t>Distance (miles)</t>
   </si>
   <si>
-    <t>Arizona D-backs</t>
+    <t>D-backs</t>
   </si>
   <si>
-    <t>Atlanta Braves</t>
+    <t>Braves</t>
   </si>
   <si>
-    <t>Baltimore Orioles</t>
+    <t>Orioles</t>
   </si>
   <si>
-    <t>Boston Red Sox</t>
+    <t>Red Sox</t>
   </si>
   <si>
-    <t>Chicago White Sox</t>
+    <t>White Sox</t>
   </si>
   <si>
-    <t>Chicago Cubs</t>
+    <t>Cubs</t>
   </si>
   <si>
-    <t>Cincinnati Reds</t>
+    <t>Reds</t>
   </si>
   <si>
-    <t>Cleveland Guardians</t>
+    <t>Guardians</t>
   </si>
   <si>
-    <t>Colorado Rockies</t>
+    <t>Rockies</t>
   </si>
   <si>
-    <t>Detroit Tigers</t>
+    <t>Tigers</t>
   </si>
   <si>
-    <t>Houston Astros</t>
+    <t>Astros</t>
   </si>
   <si>
-    <t>Kansas City Royals</t>
+    <t>Royals</t>
   </si>
   <si>
-    <t>Los Angeles Angels</t>
+    <t>Angels</t>
   </si>
   <si>
-    <t>Los Angeles Dodgers</t>
+    <t>Dodgers</t>
   </si>
   <si>
-    <t>Miami Marlins</t>
+    <t>Marlins</t>
   </si>
   <si>
-    <t>Milwaukee Brewers</t>
+    <t>Brewers</t>
   </si>
   <si>
-    <t>Minnesota Twins</t>
+    <t>Twins</t>
   </si>
   <si>
-    <t>New York Yankees</t>
+    <t>Yankees</t>
   </si>
   <si>
-    <t>New York Mets</t>
+    <t>Mets</t>
   </si>
   <si>
-    <t>Oakland Athletics</t>
+    <t>Athletics</t>
   </si>
   <si>
-    <t>Philadelphia Phillies</t>
+    <t>Phillies</t>
   </si>
   <si>
-    <t>Pittsburgh Pirates</t>
+    <t>Pirates</t>
   </si>
   <si>
-    <t>San Diego Padres</t>
+    <t>Padres</t>
   </si>
   <si>
-    <t>San Francisco Giants</t>
+    <t>Giants</t>
   </si>
   <si>
-    <t>Seattle Mariners</t>
+    <t>Mariners</t>
   </si>
   <si>
-    <t>St. Louis Cardinals</t>
+    <t>Cardinals</t>
   </si>
   <si>
-    <t>Tampa Bay Rays</t>
+    <t>Rays</t>
   </si>
   <si>
-    <t>Texas Rangers</t>
+    <t>Rangers</t>
   </si>
   <si>
-    <t>Toronto Blue Jays</t>
+    <t>Blue Jays</t>
   </si>
   <si>
-    <t>Washington Nationals</t>
+    <t>Nationals</t>
   </si>
 </sst>
 </file>
@@ -136,12 +136,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -154,16 +160,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -180,13 +186,13 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -206,6 +212,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -405,12 +412,12 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -443,10 +450,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -694,12 +701,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1014,10 +1021,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
